--- a/StudentPreference60.xlsx
+++ b/StudentPreference60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="218">
   <si>
     <t>First Name</t>
   </si>
@@ -56,604 +56,616 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Senator</t>
-  </si>
-  <si>
-    <t>McCarthy</t>
+    <t>Toni</t>
+  </si>
+  <si>
+    <t>Morrison</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>stealing jewels</t>
-  </si>
-  <si>
-    <t>fighting the forces of good</t>
-  </si>
-  <si>
-    <t>drinking tea</t>
-  </si>
-  <si>
-    <t>running a fast-food business</t>
-  </si>
-  <si>
-    <t>cooking a rabbit stew</t>
-  </si>
-  <si>
-    <t>punishing criminals</t>
-  </si>
-  <si>
-    <t>surviving in a post-apocalyptic world</t>
+    <t>eating carrots</t>
+  </si>
+  <si>
+    <t>selling comic books</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>selling tat</t>
+  </si>
+  <si>
+    <t>disappointing the family</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>spouting movie trivia</t>
+  </si>
+  <si>
+    <t>dreaming the day away</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Daniels</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>performing serious acting</t>
+  </si>
+  <si>
+    <t>campaigning for the senate</t>
+  </si>
+  <si>
+    <t>writing on wax tablets</t>
+  </si>
+  <si>
+    <t>avoiding eye contact</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Stern</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
+  </si>
+  <si>
+    <t>making fantasy movies</t>
+  </si>
+  <si>
+    <t>making cartoons</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>running a propaganda machine</t>
+  </si>
+  <si>
+    <t>painting church ceilings</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>publishing soft pornography</t>
+  </si>
+  <si>
+    <t>Gisele</t>
+  </si>
+  <si>
+    <t>MacKenzie</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>practicing the Occult</t>
+  </si>
+  <si>
+    <t>inventing new technologies</t>
+  </si>
+  <si>
+    <t>kicking ass</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>going senile</t>
+  </si>
+  <si>
+    <t>eating dinosaur ribs</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Riddle</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>puncturing artistic sensibilities</t>
+  </si>
+  <si>
+    <t>jumping on couches</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>singing blues songs</t>
+  </si>
+  <si>
+    <t>Christa</t>
+  </si>
+  <si>
+    <t>McAuliffe</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>recording pop songs</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Patsy</t>
+  </si>
+  <si>
+    <t>Cline</t>
+  </si>
+  <si>
+    <t>eluding the CIA</t>
+  </si>
+  <si>
+    <t>preventing terrorism</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Lavin</t>
+  </si>
+  <si>
+    <t>waiting for a hero</t>
+  </si>
+  <si>
+    <t>traveling in time</t>
+  </si>
+  <si>
+    <t>planning adultery</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Mauldin</t>
+  </si>
+  <si>
+    <t>promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>selling military secrets</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>taking anabolic steroids</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>shocking radio listeners</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Treacher</t>
+  </si>
+  <si>
+    <t>stealing human fat</t>
+  </si>
+  <si>
+    <t>complaining about big brother</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>Teena</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>smoking Laramie Hi-Tars</t>
+  </si>
+  <si>
+    <t>watching the sun rise</t>
+  </si>
+  <si>
+    <t>swinging on a perch</t>
+  </si>
+  <si>
+    <t>Borat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>surviving a shipwreck</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>LaToya</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>writing erotic fiction</t>
+  </si>
+  <si>
+    <t>entertaining teenagers</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Mattingly</t>
+  </si>
+  <si>
+    <t>pretending to fight</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Hannity</t>
+  </si>
+  <si>
+    <t>shopping for shoes</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>directing weird movies</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Sandburg</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Rivers</t>
+  </si>
+  <si>
+    <t>cooking British food</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Liotta</t>
+  </si>
+  <si>
+    <t>Jayne</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Singer-Sargent</t>
+  </si>
+  <si>
+    <t>Rosalynn</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>exploring foreign countries</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Merrill</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
   </si>
   <si>
     <t>fighting for justice</t>
   </si>
   <si>
-    <t>cheating at golf</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>Moon</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles</t>
-  </si>
-  <si>
-    <t>writing political tracts</t>
-  </si>
-  <si>
-    <t>singing parody songs</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>staring at the moon</t>
-  </si>
-  <si>
-    <t>playing golf</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Simpson</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>winning battles</t>
-  </si>
-  <si>
-    <t>making dunk shots</t>
-  </si>
-  <si>
-    <t>directing movies</t>
-  </si>
-  <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>selling out</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>writing rap songs</t>
-  </si>
-  <si>
-    <t>Brendan</t>
-  </si>
-  <si>
-    <t>Shanahan</t>
-  </si>
-  <si>
-    <t>making provocative documentaries</t>
-  </si>
-  <si>
-    <t>seducing women</t>
-  </si>
-  <si>
-    <t>launching foreign wars</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>abusing power</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Roger</t>
-  </si>
-  <si>
-    <t>Ebert</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>killing demons</t>
-  </si>
-  <si>
-    <t>expressing violent urges</t>
-  </si>
-  <si>
-    <t>making sarcastic remarks</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>Rupert</t>
-  </si>
-  <si>
-    <t>Grint</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>Cliff</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>dining with playboy princes</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>writing hawkish memos</t>
-  </si>
-  <si>
-    <t>healing the sick</t>
-  </si>
-  <si>
-    <t>Deborah</t>
-  </si>
-  <si>
-    <t>Gibson</t>
-  </si>
-  <si>
-    <t>chasing interns</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Calvin</t>
-  </si>
-  <si>
-    <t>Klein</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Vera</t>
-  </si>
-  <si>
-    <t>Miles</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies</t>
-  </si>
-  <si>
-    <t>Nadia</t>
-  </si>
-  <si>
-    <t>Comaneci</t>
-  </si>
-  <si>
-    <t>guarding the galaxy</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>rooting out moles</t>
-  </si>
-  <si>
-    <t>eluding hunters</t>
-  </si>
-  <si>
-    <t>smoking Laramie Hi-Tars</t>
-  </si>
-  <si>
-    <t>eluding the FBI</t>
-  </si>
-  <si>
-    <t>Timothy</t>
-  </si>
-  <si>
-    <t>Dalton</t>
-  </si>
-  <si>
-    <t>working out</t>
-  </si>
-  <si>
-    <t>Vittorio</t>
-  </si>
-  <si>
-    <t>Gassman</t>
-  </si>
-  <si>
-    <t>Darva</t>
-  </si>
-  <si>
-    <t>Conger</t>
-  </si>
-  <si>
-    <t>acting off-off-Broadway</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>going senile</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>Donald</t>
-  </si>
-  <si>
-    <t>Pleasence</t>
-  </si>
-  <si>
-    <t>playing classical piano</t>
-  </si>
-  <si>
-    <t>losing weight</t>
-  </si>
-  <si>
-    <t>Zero</t>
-  </si>
-  <si>
-    <t>Mostel</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>selling dodgy goods</t>
-  </si>
-  <si>
-    <t>hunting aliens</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Buscaglia</t>
-  </si>
-  <si>
-    <t>playing intense characters</t>
-  </si>
-  <si>
-    <t>promoting feminism</t>
-  </si>
-  <si>
-    <t>Joan</t>
-  </si>
-  <si>
-    <t>Crawford</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>making soap</t>
-  </si>
-  <si>
-    <t>hosting educational films</t>
-  </si>
-  <si>
-    <t>Don</t>
-  </si>
-  <si>
-    <t>Imus</t>
-  </si>
-  <si>
-    <t>chasing starlets</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Jude</t>
-  </si>
-  <si>
-    <t>Law</t>
-  </si>
-  <si>
-    <t>bending the law</t>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Tracy</t>
+  </si>
+  <si>
+    <t>Julianne</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Jennings</t>
+  </si>
+  <si>
+    <t>Marian</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Nanette</t>
+  </si>
+  <si>
+    <t>Fabray</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Tucker</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Anka</t>
+  </si>
+  <si>
+    <t>Dirk</t>
+  </si>
+  <si>
+    <t>Bogarde</t>
+  </si>
+  <si>
+    <t>Mel</t>
+  </si>
+  <si>
+    <t>Blanc</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>coining sparkling witticisms</t>
+  </si>
+  <si>
+    <t>Conan</t>
+  </si>
+  <si>
+    <t>OBrien</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Yauch</t>
+  </si>
+  <si>
+    <t>Garry</t>
+  </si>
+  <si>
+    <t>Kasparov</t>
+  </si>
+  <si>
+    <t>McLean</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Coolidge</t>
+  </si>
+  <si>
+    <t>Dick</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>McKnight</t>
+  </si>
+  <si>
+    <t>Phyllis</t>
+  </si>
+  <si>
+    <t>Diller</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Jobs</t>
   </si>
   <si>
     <t>Alan</t>
   </si>
   <si>
-    <t>Bates</t>
-  </si>
-  <si>
-    <t>promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>G.</t>
-  </si>
-  <si>
-    <t>Liddy</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>Adams</t>
-  </si>
-  <si>
-    <t>Ivana</t>
-  </si>
-  <si>
-    <t>Trump</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>delivering presents</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Engvall</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Emerson</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Loaf</t>
-  </si>
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>Siskel</t>
-  </si>
-  <si>
-    <t>Forest</t>
-  </si>
-  <si>
-    <t>Whitaker</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>Springer</t>
-  </si>
-  <si>
-    <t>Hakeem</t>
-  </si>
-  <si>
-    <t>Olajuwon</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Eubanks</t>
-  </si>
-  <si>
-    <t>Medley</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>Jourdan</t>
-  </si>
-  <si>
-    <t>Brooke</t>
-  </si>
-  <si>
-    <t>Shields</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Campbell</t>
-  </si>
-  <si>
-    <t>Liberace</t>
-  </si>
-  <si>
-    <t>J.D.</t>
-  </si>
-  <si>
-    <t>Salinger</t>
-  </si>
-  <si>
-    <t>Lamont</t>
-  </si>
-  <si>
-    <t>Robinson</t>
-  </si>
-  <si>
-    <t>Robby</t>
-  </si>
-  <si>
-    <t>Krieger</t>
-  </si>
-  <si>
-    <t>Stephen</t>
-  </si>
-  <si>
-    <t>Harper</t>
-  </si>
-  <si>
-    <t>Chuck</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Ray</t>
-  </si>
-  <si>
-    <t>Liotta</t>
-  </si>
-  <si>
-    <t>Rob</t>
-  </si>
-  <si>
-    <t>Morrow</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Lanza</t>
-  </si>
-  <si>
-    <t>Ed</t>
-  </si>
-  <si>
-    <t>Sullivan</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>McKinley</t>
-  </si>
-  <si>
-    <t>Harve</t>
-  </si>
-  <si>
-    <t>Presnell</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Gauguin</t>
-  </si>
-  <si>
-    <t>Boy</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Kajol</t>
-  </si>
-  <si>
-    <t>Nikos</t>
-  </si>
-  <si>
-    <t>Kazantzakis</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Calder</t>
-  </si>
-  <si>
-    <t>Mata</t>
-  </si>
-  <si>
-    <t>Hari</t>
-  </si>
-  <si>
-    <t>Haley</t>
-  </si>
-  <si>
-    <t>Osment</t>
-  </si>
-  <si>
-    <t>Beckwith</t>
-  </si>
-  <si>
-    <t>Türkan</t>
-  </si>
-  <si>
-    <t>Soray</t>
-  </si>
-  <si>
-    <t>Ann</t>
-  </si>
-  <si>
-    <t>Miller</t>
+    <t>Turing</t>
+  </si>
+  <si>
+    <t>Marty</t>
+  </si>
+  <si>
+    <t>Feldman</t>
+  </si>
+  <si>
+    <t>Jennie</t>
+  </si>
+  <si>
+    <t>Garth</t>
+  </si>
+  <si>
+    <t>Gloria</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>Musburger</t>
+  </si>
+  <si>
+    <t>Suge</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>MacRae</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Newsted</t>
+  </si>
+  <si>
+    <t>Kitty</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Belafonte</t>
+  </si>
+  <si>
+    <t>Freddie</t>
+  </si>
+  <si>
+    <t>Blassie</t>
+  </si>
+  <si>
+    <t>Conrad</t>
+  </si>
+  <si>
+    <t>Hilton</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Yankovick</t>
   </si>
 </sst>
 </file>
@@ -712,19 +724,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.95703125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.69921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="33.640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="33.640625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="33.640625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="33.640625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="33.640625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="30.8125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="34.9609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="29.171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="29.171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.171875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="28.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="28.47265625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="28.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="29.171875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="28.65625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="29.171875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="29.171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -779,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>2.3434726E7</v>
+        <v>9.655764E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -823,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>4.2823685E7</v>
+        <v>1.2186931E7</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -867,7 +879,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>2.5014509E7</v>
+        <v>1.403145E7</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -876,779 +888,779 @@
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>3.3657876E7</v>
+        <v>2.5465109E7</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
-        <v>5.6514888E7</v>
+        <v>6.5656317E7</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" t="n">
-        <v>9.265397E7</v>
+        <v>6.2353198E7</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
         <v>72</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
         <v>73</v>
       </c>
-      <c r="L7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" t="n">
-        <v>6.2850084E7</v>
+        <v>8.079022E7</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
         <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="n">
+        <v>6.348962E7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.9596632E7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
         <v>83</v>
       </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" t="n">
-        <v>1.9280701E7</v>
+        <v>7.2435662E7</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
         <v>88</v>
       </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" t="s">
-        <v>58</v>
-      </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" t="n">
-        <v>2.6585481E7</v>
+        <v>3.2571729E7</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
         <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
       </c>
       <c r="L11" t="s">
         <v>46</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C12" t="n">
-        <v>7.2073066E7</v>
+        <v>5.0599846E7</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="N12" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.4305338E7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>100</v>
       </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7.0738709E7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" t="s">
-        <v>87</v>
-      </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C14" t="n">
-        <v>4.6302688E7</v>
+        <v>6.0887812E7</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="s">
         <v>57</v>
       </c>
-      <c r="F14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" t="s">
-        <v>54</v>
-      </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C15" t="n">
-        <v>9.6231962E7</v>
+        <v>3.9284094E7</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="M15" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N15" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C16" t="n">
-        <v>6.7996971E7</v>
+        <v>1.0289716E7</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="L16" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="N16" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C17" t="n">
-        <v>5.8966187E7</v>
+        <v>5.8643924E7</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
         <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s">
         <v>66</v>
-      </c>
-      <c r="H17" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M17" t="s">
-        <v>95</v>
-      </c>
-      <c r="N17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C18" t="n">
-        <v>4.851348E7</v>
+        <v>9.4099255E7</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" t="s">
         <v>32</v>
-      </c>
-      <c r="L18" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" t="s">
-        <v>122</v>
-      </c>
-      <c r="N18" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0022455E7</v>
+        <v>1.2112405E7</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
         <v>126</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
         <v>117</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s">
         <v>127</v>
       </c>
-      <c r="I19" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" t="s">
-        <v>109</v>
-      </c>
       <c r="N19" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="n">
+        <v>9.5287424E7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" t="s">
         <v>130</v>
       </c>
-      <c r="C20" t="n">
-        <v>3.4137786E7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" t="s">
-        <v>38</v>
-      </c>
       <c r="M20" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
         <v>132</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="n">
+        <v>1.416959E7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" t="s">
         <v>133</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5.7603675E7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -1659,172 +1671,172 @@
         <v>135</v>
       </c>
       <c r="C22" t="n">
-        <v>3.3277507E7</v>
+        <v>5.8848814E7</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="J22" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="M22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
         <v>137</v>
       </c>
-      <c r="B23" t="s">
-        <v>138</v>
-      </c>
       <c r="C23" t="n">
-        <v>6.2171912E7</v>
+        <v>3.3691442E7</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="N23" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C24" t="n">
-        <v>2.9592702E7</v>
+        <v>2.9325837E7</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C25" t="n">
-        <v>5.6067178E7</v>
+        <v>6.1635103E7</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" t="s">
         <v>45</v>
       </c>
-      <c r="J25" t="s">
-        <v>84</v>
-      </c>
-      <c r="K25" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" t="s">
-        <v>42</v>
-      </c>
       <c r="M25" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="N25" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -1835,1580 +1847,1580 @@
         <v>145</v>
       </c>
       <c r="C26" t="n">
-        <v>9.0842071E7</v>
+        <v>1.9334687E7</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="I26" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="J26" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s">
+        <v>130</v>
+      </c>
+      <c r="N26" t="s">
         <v>18</v>
-      </c>
-      <c r="K26" t="s">
-        <v>147</v>
-      </c>
-      <c r="L26" t="s">
-        <v>117</v>
-      </c>
-      <c r="M26" t="s">
-        <v>94</v>
-      </c>
-      <c r="N26" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27" t="n">
-        <v>6.6957888E7</v>
+        <v>2.8298773E7</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
         <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="K27" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L27" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="M27" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="N27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C28" t="n">
-        <v>1.1329646E7</v>
+        <v>3.667074E7</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="K28" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="L28" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="M28" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N28" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29" t="n">
-        <v>1.6432697E7</v>
+        <v>1.2946553E7</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="L29" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="M29" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="N29" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C30" t="n">
-        <v>5.947412E7</v>
+        <v>4.2188096E7</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="J30" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="M30" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="N30" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C31" t="n">
-        <v>9.4264539E7</v>
+        <v>2.9062131E7</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="H31" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="K31" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="M31" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="N31" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C32" t="n">
-        <v>6.8268244E7</v>
+        <v>5.5773466E7</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L32" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N32" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C33" t="n">
-        <v>5.8556987E7</v>
+        <v>5.5680536E7</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
         <v>77</v>
       </c>
-      <c r="H33" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" t="s">
-        <v>122</v>
-      </c>
       <c r="K33" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="L33" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N33" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C34" t="n">
-        <v>3.6337389E7</v>
+        <v>4.6247818E7</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="L34" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="M34" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="N34" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C35" t="n">
-        <v>8.3121075E7</v>
+        <v>8.038247E7</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="H35" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="I35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J35" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="L35" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="M35" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="N35" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C36" t="n">
-        <v>7.4388775E7</v>
+        <v>8.1948972E7</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="J36" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="K36" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="L36" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="M36" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="N36" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C37" t="n">
-        <v>4.5719281E7</v>
+        <v>9.3954135E7</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="K37" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L37" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="M37" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="N37" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C38" t="n">
-        <v>8.278391E7</v>
+        <v>6.7548626E7</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="J38" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L38" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="M38" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="N38" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="C39" t="n">
-        <v>5.6445204E7</v>
+        <v>3.7733987E7</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="G39" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="J39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L39" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="M39" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="N39" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C40" t="n">
-        <v>7.20064E7</v>
+        <v>3.1979577E7</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
         <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" t="s">
+        <v>118</v>
+      </c>
+      <c r="L40" t="s">
         <v>35</v>
       </c>
-      <c r="I40" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" t="s">
-        <v>59</v>
-      </c>
-      <c r="K40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" t="s">
-        <v>80</v>
-      </c>
       <c r="M40" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="N40" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C41" t="n">
-        <v>4.7557401E7</v>
+        <v>2.4875556E7</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="J41" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="K41" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="L41" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M41" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="N41" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C42" t="n">
-        <v>1.0600558E7</v>
+        <v>5.8422683E7</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="K42" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="L42" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="M42" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N42" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C43" t="n">
-        <v>9.0039433E7</v>
+        <v>1.1420493E7</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" t="s">
+        <v>66</v>
+      </c>
+      <c r="M43" t="s">
+        <v>96</v>
+      </c>
+      <c r="N43" t="s">
         <v>35</v>
-      </c>
-      <c r="I43" t="s">
-        <v>44</v>
-      </c>
-      <c r="J43" t="s">
-        <v>123</v>
-      </c>
-      <c r="K43" t="s">
-        <v>53</v>
-      </c>
-      <c r="L43" t="s">
-        <v>34</v>
-      </c>
-      <c r="M43" t="s">
-        <v>72</v>
-      </c>
-      <c r="N43" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C44" t="n">
-        <v>7.6269023E7</v>
+        <v>3.1727233E7</v>
       </c>
       <c r="D44" t="s">
         <v>29</v>
       </c>
       <c r="E44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44" t="s">
+        <v>67</v>
+      </c>
+      <c r="L44" t="s">
         <v>42</v>
       </c>
-      <c r="F44" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-      <c r="J44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" t="s">
-        <v>36</v>
-      </c>
-      <c r="L44" t="s">
-        <v>38</v>
-      </c>
       <c r="M44" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N44" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C45" t="n">
-        <v>9.9460794E7</v>
+        <v>4.6120019E7</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="J45" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="M45" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="N45" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C46" t="n">
-        <v>8.7822566E7</v>
+        <v>1.6098437E7</v>
       </c>
       <c r="D46" t="s">
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="K46" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="L46" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="M46" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="N46" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C47" t="n">
-        <v>4.0148026E7</v>
+        <v>6.7646713E7</v>
       </c>
       <c r="D47" t="s">
         <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="K47" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="L47" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M47" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N47" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C48" t="n">
-        <v>3.9569157E7</v>
+        <v>2.4050332E7</v>
       </c>
       <c r="D48" t="s">
         <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H48" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" t="s">
         <v>32</v>
       </c>
-      <c r="I48" t="s">
-        <v>80</v>
-      </c>
       <c r="J48" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="L48" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M48" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="N48" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C49" t="n">
-        <v>6.839278E7</v>
+        <v>9.6621744E7</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="H49" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="J49" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="L49" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="M49" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="N49" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C50" t="n">
-        <v>1.7856756E7</v>
+        <v>4.6030797E7</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
       <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" t="s">
+        <v>101</v>
+      </c>
+      <c r="L50" t="s">
         <v>107</v>
       </c>
-      <c r="F50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" t="s">
-        <v>108</v>
-      </c>
-      <c r="H50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" t="s">
-        <v>62</v>
-      </c>
-      <c r="J50" t="s">
-        <v>77</v>
-      </c>
-      <c r="K50" t="s">
-        <v>117</v>
-      </c>
-      <c r="L50" t="s">
-        <v>26</v>
-      </c>
       <c r="M50" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N50" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C51" t="n">
-        <v>6.5535619E7</v>
+        <v>7.7329E7</v>
       </c>
       <c r="D51" t="s">
         <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="H51" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="I51" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J51" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="K51" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="L51" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="M51" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="N51" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C52" t="n">
-        <v>2.5591522E7</v>
+        <v>6.4077602E7</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="I52" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="K52" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="L52" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="M52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N52" t="s">
         <v>67</v>
-      </c>
-      <c r="N52" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="C53" t="n">
-        <v>2.5834093E7</v>
+        <v>9.4952156E7</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="G53" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H53" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="I53" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="J53" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="L53" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="M53" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="N53" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="C54" t="n">
-        <v>3.3460626E7</v>
+        <v>6.8081019E7</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="G54" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="H54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" t="s">
+        <v>100</v>
+      </c>
+      <c r="L54" t="s">
         <v>78</v>
       </c>
-      <c r="I54" t="s">
-        <v>70</v>
-      </c>
-      <c r="J54" t="s">
-        <v>33</v>
-      </c>
-      <c r="K54" t="s">
-        <v>31</v>
-      </c>
-      <c r="L54" t="s">
-        <v>45</v>
-      </c>
       <c r="M54" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="N54" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C55" t="n">
-        <v>8.3161114E7</v>
+        <v>3.4529017E7</v>
       </c>
       <c r="D55" t="s">
         <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="J55" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="K55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L55" t="s">
         <v>114</v>
       </c>
-      <c r="L55" t="s">
-        <v>72</v>
-      </c>
       <c r="M55" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="N55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B56" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C56" t="n">
-        <v>9.7911609E7</v>
+        <v>1.7740916E7</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="J56" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="K56" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="L56" t="s">
         <v>55</v>
       </c>
       <c r="M56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N56" t="s">
         <v>59</v>
-      </c>
-      <c r="N56" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C57" t="n">
-        <v>1.5455513E7</v>
+        <v>4.0754071E7</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="K57" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L57" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="M57" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="N57" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C58" t="n">
-        <v>3.0357693E7</v>
+        <v>4.1453058E7</v>
       </c>
       <c r="D58" t="s">
         <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H58" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J58" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="K58" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="L58" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M58" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N58" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="B59" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C59" t="n">
-        <v>6.9387991E7</v>
+        <v>6.4511651E7</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
       </c>
       <c r="E59" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="F59" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="H59" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+      <c r="J59" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" t="s">
+        <v>46</v>
+      </c>
+      <c r="L59" t="s">
         <v>72</v>
       </c>
-      <c r="I59" t="s">
-        <v>56</v>
-      </c>
-      <c r="J59" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" t="s">
-        <v>59</v>
-      </c>
-      <c r="L59" t="s">
-        <v>59</v>
-      </c>
       <c r="M59" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="N59" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C60" t="n">
-        <v>3.5279469E7</v>
+        <v>8.6159708E7</v>
       </c>
       <c r="D60" t="s">
         <v>16</v>
       </c>
       <c r="E60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" t="s">
         <v>18</v>
       </c>
-      <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>77</v>
-      </c>
       <c r="H60" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="I60" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="K60" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L60" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="M60" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N60" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C61" t="n">
-        <v>7.8043996E7</v>
+        <v>2.0450758E7</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G61" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="H61" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J61" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="L61" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="M61" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N61" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/StudentPreference60.xlsx
+++ b/StudentPreference60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="207">
   <si>
     <t>First Name</t>
   </si>
@@ -56,616 +56,583 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Toni</t>
-  </si>
-  <si>
-    <t>Morrison</t>
+    <t>RuPaul</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>producing Hollywood movies</t>
+  </si>
+  <si>
+    <t>building empires</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>making witty remarks</t>
+  </si>
+  <si>
+    <t>issuing fatwas</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Hackett</t>
+  </si>
+  <si>
+    <t>running the FBI</t>
+  </si>
+  <si>
+    <t>singing protest songs</t>
+  </si>
+  <si>
+    <t>drawing political cartoons</t>
+  </si>
+  <si>
+    <t>popping amphetamines</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>writing blues songs</t>
+  </si>
+  <si>
+    <t>Dick</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>studying the cosmos</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>designing clothes</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>painting abstract paintings</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>Jo</t>
+  </si>
+  <si>
+    <t>Worley</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>eating carrots</t>
-  </si>
-  <si>
-    <t>selling comic books</t>
-  </si>
-  <si>
-    <t>guarding the galaxy</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>selling tat</t>
-  </si>
-  <si>
-    <t>disappointing the family</t>
+    <t>fighting in gladiator arenas</t>
+  </si>
+  <si>
+    <t>obsessively washing hands</t>
+  </si>
+  <si>
+    <t>delivering presents</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>saving money</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>exorcising demons</t>
+  </si>
+  <si>
+    <t>developing cunning plans</t>
+  </si>
+  <si>
+    <t>teaching the next generation</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>fencing stolen goods</t>
+  </si>
+  <si>
+    <t>eluding authorities</t>
+  </si>
+  <si>
+    <t>expressing violent urges</t>
+  </si>
+  <si>
+    <t>cooking British food</t>
+  </si>
+  <si>
+    <t>phoning home</t>
+  </si>
+  <si>
+    <t>selling dodgy goods</t>
+  </si>
+  <si>
+    <t>raising a family</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Dreyfuss</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>trimming bushes</t>
+  </si>
+  <si>
+    <t>Charlize</t>
+  </si>
+  <si>
+    <t>Theron</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>looking for love</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Nesmith</t>
+  </si>
+  <si>
+    <t>writing short stories</t>
+  </si>
+  <si>
+    <t>opening new markets</t>
+  </si>
+  <si>
+    <t>making Italian movies</t>
+  </si>
+  <si>
+    <t>arguing against capitalism</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Bardem</t>
   </si>
   <si>
     <t>fighting for the rebel alliance</t>
   </si>
   <si>
-    <t>spouting movie trivia</t>
-  </si>
-  <si>
-    <t>dreaming the day away</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Daniels</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>performing serious acting</t>
-  </si>
-  <si>
-    <t>campaigning for the senate</t>
-  </si>
-  <si>
-    <t>writing on wax tablets</t>
-  </si>
-  <si>
-    <t>avoiding eye contact</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Isaac</t>
-  </si>
-  <si>
-    <t>Stern</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>writing comedy</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>cooking chrystal meth</t>
+  </si>
+  <si>
+    <t>punishing criminals</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>fighting Carthaginians</t>
+  </si>
+  <si>
+    <t>offering advice</t>
+  </si>
+  <si>
+    <t>Ludwig</t>
+  </si>
+  <si>
+    <t>van-Beethoven</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>promoting Heliocentrism</t>
   </si>
   <si>
     <t>composing classical music</t>
   </si>
   <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>running a propaganda machine</t>
-  </si>
-  <si>
-    <t>painting church ceilings</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>publishing soft pornography</t>
-  </si>
-  <si>
-    <t>Gisele</t>
-  </si>
-  <si>
-    <t>MacKenzie</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
+    <t>Yzerman</t>
+  </si>
+  <si>
+    <t>Shania</t>
+  </si>
+  <si>
+    <t>Twain</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>bridging cultures</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Peary</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Webb</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
+  <si>
+    <t>betraying friends</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Landers</t>
+  </si>
+  <si>
+    <t>deflating political egos</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Kidman</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Schlessinger</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>Wolfman</t>
+  </si>
+  <si>
+    <t>decrying secrecy</t>
+  </si>
+  <si>
+    <t>selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>Carlo</t>
+  </si>
+  <si>
+    <t>Ponti</t>
+  </si>
+  <si>
+    <t>spying for the enemy</t>
+  </si>
+  <si>
+    <t>Augustus</t>
+  </si>
+  <si>
+    <t>Caesar</t>
+  </si>
+  <si>
+    <t>delivering forehand slams</t>
+  </si>
+  <si>
+    <t>Candace</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Bynes</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>McCrea</t>
+  </si>
+  <si>
+    <t>reading the news</t>
+  </si>
+  <si>
+    <t>Lil</t>
+  </si>
+  <si>
+    <t>Bow-Wow</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>making lewd remarks</t>
+  </si>
+  <si>
+    <t>Dwayne</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>Bellamy</t>
+  </si>
+  <si>
+    <t>Noel</t>
+  </si>
+  <si>
+    <t>Stookey</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>Ionesco</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Dole</t>
+  </si>
+  <si>
+    <t>Percival</t>
+  </si>
+  <si>
+    <t>Lowell</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Conan</t>
+  </si>
+  <si>
+    <t>OBrien</t>
+  </si>
+  <si>
+    <t>Larisa</t>
+  </si>
+  <si>
+    <t>Oleynik</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Ramis</t>
+  </si>
+  <si>
+    <t>singing romantic songs</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Audrey</t>
+  </si>
+  <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Hillary</t>
+  </si>
+  <si>
+    <t>Swank</t>
+  </si>
+  <si>
+    <t>Mädchen</t>
+  </si>
+  <si>
+    <t>Amick</t>
+  </si>
+  <si>
+    <t>Mama</t>
+  </si>
+  <si>
+    <t>Elliot</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Drysdale</t>
+  </si>
+  <si>
+    <t>Otto</t>
+  </si>
+  <si>
+    <t>Preminger</t>
+  </si>
+  <si>
+    <t>Deng</t>
+  </si>
+  <si>
+    <t>Xiaoping</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Hoffa</t>
+  </si>
+  <si>
+    <t>Dionne</t>
+  </si>
+  <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Kroc</t>
+  </si>
+  <si>
+    <t>Dady</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Buckley</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Voight</t>
   </si>
   <si>
     <t>ruling over subjects</t>
   </si>
   <si>
-    <t>practicing the Occult</t>
-  </si>
-  <si>
-    <t>inventing new technologies</t>
-  </si>
-  <si>
-    <t>kicking ass</t>
-  </si>
-  <si>
-    <t>playing pranks</t>
-  </si>
-  <si>
-    <t>going senile</t>
-  </si>
-  <si>
-    <t>eating dinosaur ribs</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Nelson</t>
-  </si>
-  <si>
-    <t>Riddle</t>
-  </si>
-  <si>
-    <t>making suspense movies</t>
-  </si>
-  <si>
-    <t>puncturing artistic sensibilities</t>
-  </si>
-  <si>
-    <t>jumping on couches</t>
-  </si>
-  <si>
-    <t>playing the piano</t>
-  </si>
-  <si>
-    <t>singing blues songs</t>
-  </si>
-  <si>
-    <t>Christa</t>
-  </si>
-  <si>
-    <t>McAuliffe</t>
-  </si>
-  <si>
-    <t>writing modern poetry</t>
-  </si>
-  <si>
-    <t>recording pop songs</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Patsy</t>
-  </si>
-  <si>
-    <t>Cline</t>
-  </si>
-  <si>
-    <t>eluding the CIA</t>
-  </si>
-  <si>
-    <t>preventing terrorism</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>Lavin</t>
-  </si>
-  <si>
-    <t>waiting for a hero</t>
-  </si>
-  <si>
-    <t>traveling in time</t>
-  </si>
-  <si>
-    <t>planning adultery</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Mauldin</t>
-  </si>
-  <si>
-    <t>promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>selling military secrets</t>
-  </si>
-  <si>
-    <t>Dr.</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>hiding from the public</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>taking anabolic steroids</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>shocking radio listeners</t>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Treacher</t>
-  </si>
-  <si>
-    <t>stealing human fat</t>
-  </si>
-  <si>
-    <t>complaining about big brother</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>Teena</t>
-  </si>
-  <si>
-    <t>Marie</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>smoking Laramie Hi-Tars</t>
-  </si>
-  <si>
-    <t>watching the sun rise</t>
-  </si>
-  <si>
-    <t>swinging on a perch</t>
-  </si>
-  <si>
-    <t>Borat</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>surviving a shipwreck</t>
-  </si>
-  <si>
-    <t>Jamie</t>
-  </si>
-  <si>
-    <t>Curtis</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>LaToya</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>writing erotic fiction</t>
-  </si>
-  <si>
-    <t>entertaining teenagers</t>
-  </si>
-  <si>
-    <t>Don</t>
-  </si>
-  <si>
-    <t>Mattingly</t>
-  </si>
-  <si>
-    <t>pretending to fight</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
-    <t>Hannity</t>
-  </si>
-  <si>
-    <t>shopping for shoes</t>
-  </si>
-  <si>
-    <t>Seal</t>
-  </si>
-  <si>
-    <t>directing weird movies</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
-    <t>Sandburg</t>
-  </si>
-  <si>
-    <t>commanding a spaceship</t>
-  </si>
-  <si>
-    <t>Joan</t>
-  </si>
-  <si>
-    <t>Rivers</t>
-  </si>
-  <si>
-    <t>cooking British food</t>
-  </si>
-  <si>
-    <t>Ray</t>
-  </si>
-  <si>
-    <t>Liotta</t>
-  </si>
-  <si>
-    <t>Jayne</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Singer-Sargent</t>
-  </si>
-  <si>
-    <t>Rosalynn</t>
-  </si>
-  <si>
-    <t>Carter</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>exploring foreign countries</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Merrill</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>Spencer</t>
-  </si>
-  <si>
-    <t>Tracy</t>
-  </si>
-  <si>
-    <t>Julianne</t>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Jennings</t>
-  </si>
-  <si>
-    <t>Marian</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>Nanette</t>
-  </si>
-  <si>
-    <t>Fabray</t>
-  </si>
-  <si>
-    <t>Sophie</t>
-  </si>
-  <si>
-    <t>Tucker</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Anka</t>
-  </si>
-  <si>
-    <t>Dirk</t>
-  </si>
-  <si>
-    <t>Bogarde</t>
-  </si>
-  <si>
-    <t>Mel</t>
-  </si>
-  <si>
-    <t>Blanc</t>
-  </si>
-  <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>Perry</t>
-  </si>
-  <si>
-    <t>coining sparkling witticisms</t>
-  </si>
-  <si>
-    <t>Conan</t>
-  </si>
-  <si>
-    <t>OBrien</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Yauch</t>
-  </si>
-  <si>
-    <t>Garry</t>
-  </si>
-  <si>
-    <t>Kasparov</t>
-  </si>
-  <si>
-    <t>McLean</t>
-  </si>
-  <si>
-    <t>Rita</t>
-  </si>
-  <si>
-    <t>Coolidge</t>
-  </si>
-  <si>
-    <t>Dick</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>McKnight</t>
-  </si>
-  <si>
-    <t>Phyllis</t>
-  </si>
-  <si>
-    <t>Diller</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>Jobs</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>Turing</t>
-  </si>
-  <si>
-    <t>Marty</t>
-  </si>
-  <si>
-    <t>Feldman</t>
-  </si>
-  <si>
-    <t>Jennie</t>
-  </si>
-  <si>
-    <t>Garth</t>
-  </si>
-  <si>
-    <t>Gloria</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Brent</t>
-  </si>
-  <si>
-    <t>Musburger</t>
-  </si>
-  <si>
-    <t>Suge</t>
-  </si>
-  <si>
-    <t>Knight</t>
-  </si>
-  <si>
-    <t>Gordon</t>
-  </si>
-  <si>
-    <t>MacRae</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Newsted</t>
-  </si>
-  <si>
-    <t>Kitty</t>
-  </si>
-  <si>
-    <t>Hart</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>Belafonte</t>
-  </si>
-  <si>
-    <t>Freddie</t>
-  </si>
-  <si>
-    <t>Blassie</t>
-  </si>
-  <si>
-    <t>Conrad</t>
-  </si>
-  <si>
-    <t>Hilton</t>
-  </si>
-  <si>
-    <t>Al</t>
-  </si>
-  <si>
-    <t>Yankovick</t>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Leary</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Dalai</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>Danica</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Screamin'</t>
+  </si>
+  <si>
+    <t>Hawkins</t>
+  </si>
+  <si>
+    <t>Sinclair</t>
   </si>
 </sst>
 </file>
@@ -724,19 +691,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.59375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.95703125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.69921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="29.171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="29.171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="28.65625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="28.47265625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="28.22265625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="29.171875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="28.65625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="29.171875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="29.171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.8125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="30.8125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="30.8125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -791,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>9.655764E7</v>
+        <v>3.8025409E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -835,216 +802,216 @@
         <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>1.2186931E7</v>
+        <v>3.4859419E7</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.2035131E7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.403145E7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.2044763E7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.5465109E7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>55</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" t="s">
         <v>56</v>
       </c>
-      <c r="H5" t="s">
+      <c r="M5" t="s">
         <v>57</v>
       </c>
-      <c r="I5" t="s">
+      <c r="N5" t="s">
         <v>58</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.8049354E7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" t="s">
+      <c r="I6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="n">
-        <v>6.5656317E7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
         <v>67</v>
       </c>
-      <c r="I6" t="s">
+      <c r="N6" t="s">
         <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="n">
+        <v>4.7647942E7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" t="n">
-        <v>6.2353198E7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" t="s">
         <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -1055,84 +1022,84 @@
         <v>76</v>
       </c>
       <c r="C8" t="n">
-        <v>8.079022E7</v>
+        <v>2.5403409E7</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
         <v>78</v>
       </c>
-      <c r="I8" t="s">
-        <v>55</v>
-      </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
       <c r="C9" t="n">
-        <v>6.348962E7</v>
+        <v>2.3187064E7</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
         <v>82</v>
       </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
         <v>83</v>
       </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>84</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>85</v>
-      </c>
-      <c r="N9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1143,169 +1110,169 @@
         <v>87</v>
       </c>
       <c r="C10" t="n">
-        <v>7.2435662E7</v>
+        <v>6.2807844E7</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" t="n">
-        <v>3.2571729E7</v>
+        <v>2.360767E7</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
         <v>97</v>
       </c>
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
       <c r="C12" t="n">
-        <v>5.0599846E7</v>
+        <v>4.1249643E7</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" t="s">
         <v>99</v>
       </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" t="s">
-        <v>62</v>
-      </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
         <v>100</v>
       </c>
-      <c r="M12" t="s">
-        <v>59</v>
-      </c>
       <c r="N12" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" t="n">
-        <v>9.4305338E7</v>
+        <v>2.0389911E7</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N13" t="s">
         <v>58</v>
@@ -1313,1597 +1280,1597 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C14" t="n">
-        <v>6.0887812E7</v>
+        <v>6.1267329E7</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C15" t="n">
-        <v>3.9284094E7</v>
+        <v>9.1465311E7</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
         <v>95</v>
       </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" t="s">
-        <v>50</v>
-      </c>
       <c r="N15" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0289716E7</v>
+        <v>2.4400987E7</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M16" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C17" t="n">
-        <v>5.8643924E7</v>
+        <v>4.6161007E7</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="N17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C18" t="n">
-        <v>9.4099255E7</v>
+        <v>5.8168261E7</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L18" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="M18" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="N18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C19" t="n">
-        <v>1.2112405E7</v>
+        <v>3.6527513E7</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="M19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="N19" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C20" t="n">
-        <v>9.5287424E7</v>
+        <v>6.310937E7</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="M20" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="N20" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C21" t="n">
-        <v>1.416959E7</v>
+        <v>1.7363762E7</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" t="s">
         <v>58</v>
       </c>
-      <c r="F21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="N21" t="s">
         <v>62</v>
-      </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" t="s">
-        <v>104</v>
-      </c>
-      <c r="M21" t="s">
-        <v>57</v>
-      </c>
-      <c r="N21" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C22" t="n">
-        <v>5.8848814E7</v>
+        <v>4.5302287E7</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="H22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
         <v>21</v>
       </c>
-      <c r="I22" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" t="s">
-        <v>56</v>
-      </c>
       <c r="M22" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="N22" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C23" t="n">
-        <v>3.3691442E7</v>
+        <v>3.5389275E7</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="K23" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="L23" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="M23" t="s">
         <v>61</v>
       </c>
       <c r="N23" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C24" t="n">
-        <v>2.9325837E7</v>
+        <v>3.6734321E7</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="J24" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" t="s">
         <v>30</v>
       </c>
-      <c r="L24" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" t="s">
-        <v>89</v>
-      </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C25" t="n">
-        <v>6.1635103E7</v>
+        <v>7.0789882E7</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="J25" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="L25" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M25" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="N25" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C26" t="n">
-        <v>1.9334687E7</v>
+        <v>8.9979544E7</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L26" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M26" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C27" t="n">
-        <v>2.8298773E7</v>
+        <v>9.8772903E7</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="K27" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="L27" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="M27" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="N27" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C28" t="n">
-        <v>3.667074E7</v>
+        <v>4.5308027E7</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="L28" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="M28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N28" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C29" t="n">
-        <v>1.2946553E7</v>
+        <v>6.3158282E7</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M29" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="N29" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C30" t="n">
-        <v>4.2188096E7</v>
+        <v>9.8775336E7</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" t="s">
         <v>73</v>
       </c>
-      <c r="F30" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" t="s">
-        <v>124</v>
-      </c>
-      <c r="J30" t="s">
-        <v>92</v>
-      </c>
-      <c r="K30" t="s">
-        <v>34</v>
-      </c>
       <c r="L30" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M30" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="N30" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C31" t="n">
-        <v>2.9062131E7</v>
+        <v>9.7077765E7</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M31" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="N31" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C32" t="n">
-        <v>5.5773466E7</v>
+        <v>6.8650565E7</v>
       </c>
       <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s">
         <v>29</v>
       </c>
-      <c r="E32" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" t="s">
-        <v>121</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" t="s">
-        <v>124</v>
-      </c>
       <c r="I32" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="L32" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N32" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C33" t="n">
-        <v>5.5680536E7</v>
+        <v>8.5846735E7</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="J33" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="M33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N33" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C34" t="n">
-        <v>4.6247818E7</v>
+        <v>9.8904497E7</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="I34" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="L34" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" t="s">
         <v>54</v>
       </c>
-      <c r="M34" t="s">
-        <v>25</v>
-      </c>
       <c r="N34" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C35" t="n">
-        <v>8.038247E7</v>
+        <v>3.034921E7</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="I35" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" t="s">
         <v>73</v>
       </c>
-      <c r="K35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L35" t="s">
-        <v>50</v>
-      </c>
       <c r="M35" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="N35" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C36" t="n">
-        <v>8.1948972E7</v>
+        <v>7.5278377E7</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I36" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L36" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="M36" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="N36" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C37" t="n">
-        <v>9.3954135E7</v>
+        <v>5.0553558E7</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s">
         <v>88</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="K37" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="M37" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="N37" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C38" t="n">
-        <v>6.7548626E7</v>
+        <v>4.9369001E7</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="G38" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J38" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K38" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="L38" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="M38" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="N38" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C39" t="n">
-        <v>3.7733987E7</v>
+        <v>3.0216085E7</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" t="s">
         <v>85</v>
       </c>
-      <c r="F39" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" t="s">
-        <v>106</v>
-      </c>
-      <c r="J39" t="s">
-        <v>78</v>
-      </c>
-      <c r="K39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" t="s">
-        <v>60</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>17</v>
-      </c>
-      <c r="N39" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C40" t="n">
-        <v>3.1979577E7</v>
+        <v>8.0170267E7</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K40" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L40" t="s">
+        <v>166</v>
+      </c>
+      <c r="M40" t="s">
         <v>35</v>
       </c>
-      <c r="M40" t="s">
-        <v>94</v>
-      </c>
       <c r="N40" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C41" t="n">
-        <v>2.4875556E7</v>
+        <v>4.197142E7</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G41" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="H41" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M41" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="N41" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C42" t="n">
-        <v>5.8422683E7</v>
+        <v>2.9800091E7</v>
       </c>
       <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" t="s">
         <v>29</v>
       </c>
-      <c r="E42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" t="s">
-        <v>49</v>
-      </c>
-      <c r="I42" t="s">
-        <v>74</v>
-      </c>
       <c r="J42" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="K42" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L42" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="M42" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="N42" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C43" t="n">
-        <v>1.1420493E7</v>
+        <v>8.5941246E7</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H43" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="K43" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="L43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M43" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="N43" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C44" t="n">
-        <v>3.1727233E7</v>
+        <v>7.9897127E7</v>
       </c>
       <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s">
         <v>29</v>
       </c>
-      <c r="E44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" t="s">
-        <v>113</v>
-      </c>
       <c r="I44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="L44" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="M44" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C45" t="n">
-        <v>4.6120019E7</v>
+        <v>8.3809179E7</v>
       </c>
       <c r="D45" t="s">
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="H45" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="K45" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="L45" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="M45" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="N45" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C46" t="n">
-        <v>1.6098437E7</v>
+        <v>4.955637E7</v>
       </c>
       <c r="D46" t="s">
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
         <v>17</v>
       </c>
-      <c r="H46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
         <v>26</v>
       </c>
-      <c r="K46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" t="s">
-        <v>83</v>
-      </c>
       <c r="M46" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="N46" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C47" t="n">
-        <v>6.7646713E7</v>
+        <v>9.1290395E7</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47" t="s">
         <v>44</v>
       </c>
-      <c r="G47" t="s">
-        <v>117</v>
-      </c>
-      <c r="H47" t="s">
-        <v>50</v>
-      </c>
-      <c r="I47" t="s">
-        <v>45</v>
-      </c>
       <c r="J47" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="K47" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L47" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M47" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="N47" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C48" t="n">
-        <v>2.4050332E7</v>
+        <v>2.2471096E7</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="H48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="J48" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="K48" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M48" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="N48" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="C49" t="n">
-        <v>9.6621744E7</v>
+        <v>8.4797565E7</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H49" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J49" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="K49" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="L49" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="M49" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="N49" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C50" t="n">
-        <v>4.6030797E7</v>
+        <v>3.3485965E7</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
@@ -2912,515 +2879,515 @@
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="G50" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s">
+        <v>166</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+      <c r="K50" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" t="s">
         <v>20</v>
       </c>
-      <c r="J50" t="s">
-        <v>61</v>
-      </c>
-      <c r="K50" t="s">
-        <v>101</v>
-      </c>
-      <c r="L50" t="s">
-        <v>107</v>
-      </c>
-      <c r="M50" t="s">
-        <v>60</v>
-      </c>
       <c r="N50" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C51" t="n">
-        <v>7.7329E7</v>
+        <v>3.7819188E7</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="G51" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="K51" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="L51" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="M51" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="N51" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C52" t="n">
-        <v>6.4077602E7</v>
+        <v>3.8645557E7</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I52" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L52" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="M52" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="N52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="C53" t="n">
-        <v>9.4952156E7</v>
+        <v>7.0346312E7</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G53" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="H53" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="L53" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M53" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="N53" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C54" t="n">
-        <v>6.8081019E7</v>
+        <v>6.2851909E7</v>
       </c>
       <c r="D54" t="s">
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J54" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="K54" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="L54" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M54" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="N54" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C55" t="n">
-        <v>3.4529017E7</v>
+        <v>8.4601584E7</v>
       </c>
       <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
         <v>29</v>
       </c>
-      <c r="E55" t="s">
-        <v>143</v>
-      </c>
       <c r="F55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" t="s">
         <v>33</v>
       </c>
-      <c r="G55" t="s">
-        <v>51</v>
-      </c>
-      <c r="H55" t="s">
-        <v>46</v>
-      </c>
-      <c r="I55" t="s">
-        <v>65</v>
-      </c>
-      <c r="J55" t="s">
-        <v>126</v>
-      </c>
       <c r="K55" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="L55" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="M55" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N55" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C56" t="n">
-        <v>1.7740916E7</v>
+        <v>1.1307223E7</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="J56" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L56" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="M56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N56" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B57" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C57" t="n">
-        <v>4.0754071E7</v>
+        <v>7.5581178E7</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="G57" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H57" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="J57" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="L57" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="M57" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="N57" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C58" t="n">
-        <v>4.1453058E7</v>
+        <v>9.3870821E7</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="H58" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="I58" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J58" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="L58" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M58" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="N58" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C59" t="n">
-        <v>6.4511651E7</v>
+        <v>2.3505432E7</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G59" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I59" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="J59" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="K59" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="L59" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="M59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N59" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C60" t="n">
-        <v>8.6159708E7</v>
+        <v>2.9564989E7</v>
       </c>
       <c r="D60" t="s">
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s">
+        <v>166</v>
+      </c>
+      <c r="I60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" t="s">
+        <v>81</v>
+      </c>
+      <c r="K60" t="s">
+        <v>84</v>
+      </c>
+      <c r="L60" t="s">
         <v>18</v>
       </c>
-      <c r="H60" t="s">
-        <v>146</v>
-      </c>
-      <c r="I60" t="s">
-        <v>85</v>
-      </c>
-      <c r="J60" t="s">
-        <v>57</v>
-      </c>
-      <c r="K60" t="s">
-        <v>100</v>
-      </c>
-      <c r="L60" t="s">
-        <v>56</v>
-      </c>
       <c r="M60" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N60" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="C61" t="n">
-        <v>2.0450758E7</v>
+        <v>4.2727924E7</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I61" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="J61" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L61" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M61" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="N61" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/StudentPreference60.xlsx
+++ b/StudentPreference60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="202">
   <si>
     <t>First Name</t>
   </si>
@@ -56,580 +56,568 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Allen</t>
+    <t>Strom</t>
+  </si>
+  <si>
+    <t>Thurmond</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
+    <t>writing cook books</t>
+  </si>
+  <si>
+    <t>singing protest songs</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>chasing after women</t>
+  </si>
+  <si>
+    <t>directing action movies</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
+  </si>
+  <si>
+    <t>painting self-portraits</t>
+  </si>
+  <si>
+    <t>making propagandistic movies</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>feeding the poor</t>
+  </si>
+  <si>
+    <t>driving around America</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
+  </si>
+  <si>
+    <t>hiding from extremists</t>
+  </si>
+  <si>
+    <t>promoting feminism</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>pushing haute couture</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>offering medical opinions</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>chasing electronic ghosts</t>
+  </si>
+  <si>
+    <t>making money</t>
+  </si>
+  <si>
+    <t>making condescending remarks</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>fencing stolen goods</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>carrying secret plans</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Follett</t>
+  </si>
+  <si>
+    <t>pushing the hardline</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>smoking herb</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Bud</t>
+  </si>
+  <si>
+    <t>Collyer</t>
+  </si>
+  <si>
+    <t>performing serious acting</t>
+  </si>
+  <si>
+    <t>signing sports memorabilia</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>jumping over buses on motorbikes</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Haley</t>
+  </si>
+  <si>
+    <t>writing pot-boilers</t>
+  </si>
+  <si>
+    <t>suppressing minorities</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
   </si>
   <si>
     <t>campaigning for social causes</t>
   </si>
   <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Farley</t>
+  </si>
+  <si>
+    <t>gossiping with galpals</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>preaching tolerance</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Johns</t>
+  </si>
+  <si>
+    <t>telling bad jokes</t>
+  </si>
+  <si>
+    <t>looking after mother</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Arkin</t>
+  </si>
+  <si>
+    <t>making bad movies</t>
+  </si>
+  <si>
+    <t>womanizing</t>
+  </si>
+  <si>
+    <t>complaining about capitalism</t>
+  </si>
+  <si>
+    <t>following the money</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Cullen</t>
+  </si>
+  <si>
+    <t>brewing magican potions</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Webber</t>
+  </si>
+  <si>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>directing movies</t>
+  </si>
+  <si>
+    <t>over-acting</t>
+  </si>
+  <si>
+    <t>fighting Carthaginians</t>
+  </si>
+  <si>
+    <t>performing Web searches</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>selling chrystal meth</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Calder</t>
+  </si>
+  <si>
+    <t>M.</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Foxworthy</t>
+  </si>
+  <si>
+    <t>writing political satires</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Lange</t>
+  </si>
+  <si>
+    <t>Solanus</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>promoting Objectivism</t>
+  </si>
+  <si>
+    <t>Liz</t>
+  </si>
+  <si>
+    <t>McClarnon</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Connie</t>
+  </si>
+  <si>
+    <t>Chung</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Damon</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
+    <t>Stefani</t>
+  </si>
+  <si>
+    <t>Nicol</t>
+  </si>
+  <si>
+    <t>Williamson</t>
+  </si>
+  <si>
+    <t>singing to teenagers</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>Currier</t>
+  </si>
+  <si>
+    <t>writing serialized stories</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>Landon</t>
+  </si>
+  <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Glover</t>
+  </si>
+  <si>
+    <t>Rue</t>
+  </si>
+  <si>
+    <t>McClanahan</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Dizzy</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Nicklaus</t>
+  </si>
+  <si>
     <t>monetizing celebrity status</t>
   </si>
   <si>
-    <t>undermining authority</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>Malle</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>singing to teenagers</t>
-  </si>
-  <si>
-    <t>having meltdowns in public</t>
-  </si>
-  <si>
-    <t>investing money</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>Aguilara</t>
+  </si>
+  <si>
+    <t>Emmett</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Sammy</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Schwartineger</t>
+  </si>
+  <si>
+    <t>Mel</t>
+  </si>
+  <si>
+    <t>Blanc</t>
+  </si>
+  <si>
+    <t>writing romantic poetry</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Goldman</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Tewes</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Fayard</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Shaquille</t>
+  </si>
+  <si>
+    <t>Oneil</t>
+  </si>
+  <si>
+    <t>Estelle</t>
+  </si>
+  <si>
+    <t>Halliwell</t>
+  </si>
+  <si>
+    <t>Michelangelo</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Hugh</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Warhol</t>
+  </si>
+  <si>
+    <t>Chester</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Elke</t>
+  </si>
+  <si>
+    <t>Sommer</t>
+  </si>
+  <si>
+    <t>Maureen</t>
+  </si>
+  <si>
+    <t>Stapleton</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Dreyfus</t>
+  </si>
+  <si>
+    <t>Salman</t>
+  </si>
+  <si>
+    <t>Rushdie</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Madeline</t>
+  </si>
+  <si>
+    <t>LEngle</t>
+  </si>
+  <si>
+    <t>Quintanilla</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Keith</t>
   </si>
   <si>
     <t>Sam</t>
   </si>
   <si>
-    <t>Adams</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>bullying schoolkids</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>eluding hunters</t>
-  </si>
-  <si>
-    <t>hunting monsters</t>
-  </si>
-  <si>
-    <t>incurring debts</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>nursing a messiah complex</t>
-  </si>
-  <si>
-    <t>Pete</t>
-  </si>
-  <si>
-    <t>Rozelle</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>studying magic</t>
-  </si>
-  <si>
-    <t>performing office chores</t>
-  </si>
-  <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Blige</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Harold</t>
-  </si>
-  <si>
-    <t>Pinter</t>
-  </si>
-  <si>
-    <t>writing hawkish memos</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>Horatio</t>
-  </si>
-  <si>
-    <t>Alger</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>singing jazz songs</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>Maurice</t>
-  </si>
-  <si>
-    <t>Sendak</t>
-  </si>
-  <si>
-    <t>studying gorillas up close</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>riding a bicycle</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Carlton</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>promoting nerd culture</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Reiser</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Viggo</t>
-  </si>
-  <si>
-    <t>Mortensen</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>cheating clients</t>
-  </si>
-  <si>
-    <t>Henri</t>
-  </si>
-  <si>
-    <t>Matisse</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>Kenny</t>
-  </si>
-  <si>
-    <t>Chesney</t>
-  </si>
-  <si>
-    <t>fawning on the boss</t>
+    <t>Donaldson</t>
+  </si>
+  <si>
+    <t>Tyler</t>
   </si>
   <si>
     <t>James</t>
-  </si>
-  <si>
-    <t>Hetfield</t>
-  </si>
-  <si>
-    <t>designing computer systems</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>Shane</t>
-  </si>
-  <si>
-    <t>MacGowan</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Mull</t>
-  </si>
-  <si>
-    <t>spying on girls</t>
-  </si>
-  <si>
-    <t>Amadeus</t>
-  </si>
-  <si>
-    <t>Mozart</t>
-  </si>
-  <si>
-    <t>warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Brett</t>
-  </si>
-  <si>
-    <t>hosting anodyne game shows</t>
-  </si>
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>Fisher</t>
-  </si>
-  <si>
-    <t>making lewd remarks</t>
-  </si>
-  <si>
-    <t>Anita</t>
-  </si>
-  <si>
-    <t>ODay</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Isiah</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>writing cook books</t>
-  </si>
-  <si>
-    <t>Giuseppe</t>
-  </si>
-  <si>
-    <t>Verdi</t>
-  </si>
-  <si>
-    <t>tracking down fugitives</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t>Carter</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>carving magnificent statues</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Hamill</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>Lillian</t>
-  </si>
-  <si>
-    <t>Gish</t>
-  </si>
-  <si>
-    <t>Katharine</t>
-  </si>
-  <si>
-    <t>Hepburn</t>
-  </si>
-  <si>
-    <t>Robbins</t>
-  </si>
-  <si>
-    <t>Spike</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>winning swimming competitions</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>Enrique</t>
-  </si>
-  <si>
-    <t>Iglesias</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Zappa</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Mitchum</t>
-  </si>
-  <si>
-    <t>Saul</t>
-  </si>
-  <si>
-    <t>Bellow</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Casady</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Hicks</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Goodall</t>
-  </si>
-  <si>
-    <t>Danny</t>
-  </si>
-  <si>
-    <t>DeVito</t>
-  </si>
-  <si>
-    <t>Floyd</t>
-  </si>
-  <si>
-    <t>Patterson</t>
-  </si>
-  <si>
-    <t>Burt</t>
-  </si>
-  <si>
-    <t>Reynolds</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>McCartney</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Noone</t>
-  </si>
-  <si>
-    <t>Farrah</t>
-  </si>
-  <si>
-    <t>Fawcett</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>Bernhardt</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>Hilary</t>
-  </si>
-  <si>
-    <t>Duff</t>
-  </si>
-  <si>
-    <t>Donald</t>
-  </si>
-  <si>
-    <t>OConnor</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>Ethel</t>
-  </si>
-  <si>
-    <t>Kennedy</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>Christina</t>
-  </si>
-  <si>
-    <t>Aguilara</t>
-  </si>
-  <si>
-    <t>Fogelberg</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Larry</t>
-  </si>
-  <si>
-    <t>Hagman</t>
-  </si>
-  <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t>Hopkins</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>Dee</t>
-  </si>
-  <si>
-    <t>Cedric</t>
-  </si>
-  <si>
-    <t>Entertainer</t>
-  </si>
-  <si>
-    <t>Eva</t>
-  </si>
-  <si>
-    <t>Gabor</t>
   </si>
 </sst>
 </file>
@@ -688,19 +676,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.9140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.95703125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.69921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="30.421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="30.421875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="30.421875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="28.8125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.97265625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="31.40625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="31.97265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="28.47265625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="31.97265625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="31.97265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="31.97265625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="31.97265625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="31.40625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="31.40625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -755,7 +743,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>9.3304334E7</v>
+        <v>3.6876467E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -799,7 +787,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>4.527288E7</v>
+        <v>1.2027315E7</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -820,16 +808,16 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
         <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -843,7 +831,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>9.8200025E7</v>
+        <v>4.1254643E7</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -852,559 +840,559 @@
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>8.5957532E7</v>
+        <v>2.2025817E7</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
         <v>53</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>54</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" t="s">
         <v>47</v>
-      </c>
-      <c r="J5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0168735E7</v>
+        <v>7.016157E7</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
         <v>61</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
         <v>62</v>
       </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="n">
-        <v>9.9807478E7</v>
+        <v>8.6236207E7</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C8" t="n">
-        <v>6.6247796E7</v>
+        <v>2.593255E7</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.1002725E7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
         <v>76</v>
       </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.7120671E7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>78</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0589331E7</v>
+        <v>4.1734633E7</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" t="s">
         <v>22</v>
-      </c>
-      <c r="I10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C11" t="n">
-        <v>5.6330186E7</v>
+        <v>1.6535785E7</v>
       </c>
       <c r="D11" t="s">
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C12" t="n">
-        <v>7.4257785E7</v>
+        <v>2.3502451E7</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C13" t="n">
-        <v>6.2780971E7</v>
+        <v>9.4981937E7</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C14" t="n">
-        <v>7.0654511E7</v>
+        <v>1.5459443E7</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" t="s">
         <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C15" t="n">
-        <v>1.4345286E7</v>
+        <v>9.6624986E7</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C16" t="n">
-        <v>8.675487E7</v>
+        <v>7.48659E7</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="K16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" t="s">
         <v>56</v>
       </c>
-      <c r="L16" t="s">
-        <v>54</v>
-      </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="N16" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -1415,84 +1403,84 @@
         <v>109</v>
       </c>
       <c r="C17" t="n">
-        <v>3.1648193E7</v>
+        <v>8.2819442E7</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
         <v>110</v>
       </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" t="s">
-        <v>42</v>
-      </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C18" t="n">
-        <v>7.6755253E7</v>
+        <v>9.0379388E7</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="K18" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -1503,128 +1491,128 @@
         <v>116</v>
       </c>
       <c r="C19" t="n">
-        <v>5.4394004E7</v>
+        <v>3.3963429E7</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="K19" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="N19" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" t="n">
-        <v>9.7536505E7</v>
+        <v>9.7900401E7</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" t="s">
         <v>32</v>
       </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>83</v>
-      </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M20" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" t="n">
-        <v>1.5873753E7</v>
+        <v>8.5235506E7</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M21" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -1635,40 +1623,40 @@
         <v>125</v>
       </c>
       <c r="C22" t="n">
-        <v>3.6259717E7</v>
+        <v>6.9155257E7</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M22" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -1679,84 +1667,84 @@
         <v>128</v>
       </c>
       <c r="C23" t="n">
-        <v>4.4451848E7</v>
+        <v>6.1151372E7</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="L23" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="N23" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
         <v>130</v>
       </c>
-      <c r="B24" t="s">
-        <v>131</v>
-      </c>
       <c r="C24" t="n">
-        <v>4.1192901E7</v>
+        <v>3.364625E7</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J24" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="L24" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="M24" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -1767,40 +1755,40 @@
         <v>133</v>
       </c>
       <c r="C25" t="n">
-        <v>9.0654416E7</v>
+        <v>6.6508763E7</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
         <v>134</v>
       </c>
       <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25" t="s">
         <v>135</v>
-      </c>
-      <c r="G25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -1811,40 +1799,40 @@
         <v>137</v>
       </c>
       <c r="C26" t="n">
-        <v>6.490903E7</v>
+        <v>5.5438563E7</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="M26" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="N26" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1855,40 +1843,40 @@
         <v>139</v>
       </c>
       <c r="C27" t="n">
-        <v>3.7650692E7</v>
+        <v>7.2817017E7</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" t="s">
         <v>40</v>
       </c>
-      <c r="K27" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" t="s">
-        <v>42</v>
-      </c>
       <c r="M27" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="N27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
@@ -1899,40 +1887,40 @@
         <v>141</v>
       </c>
       <c r="C28" t="n">
-        <v>6.6394575E7</v>
+        <v>5.5127672E7</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="N28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -1943,172 +1931,172 @@
         <v>143</v>
       </c>
       <c r="C29" t="n">
-        <v>1.654752E7</v>
+        <v>5.1421729E7</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L29" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="M29" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="N29" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C30" t="n">
-        <v>9.2831412E7</v>
+        <v>1.1791745E7</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" t="s">
         <v>53</v>
-      </c>
-      <c r="K30" t="s">
-        <v>57</v>
-      </c>
-      <c r="L30" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" t="s">
-        <v>110</v>
-      </c>
-      <c r="N30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C31" t="n">
-        <v>5.4447739E7</v>
+        <v>1.9047447E7</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="K31" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="M31" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="N31" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
         <v>150</v>
       </c>
       <c r="C32" t="n">
-        <v>8.4557632E7</v>
+        <v>6.6567886E7</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" t="s">
         <v>87</v>
       </c>
-      <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" t="s">
-        <v>107</v>
-      </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="K32" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L32" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="M32" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N32" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -2119,40 +2107,40 @@
         <v>152</v>
       </c>
       <c r="C33" t="n">
-        <v>2.3641762E7</v>
+        <v>3.6140445E7</v>
       </c>
       <c r="D33" t="s">
         <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" t="s">
         <v>44</v>
-      </c>
-      <c r="H33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" t="s">
-        <v>99</v>
-      </c>
-      <c r="K33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33" t="s">
-        <v>57</v>
-      </c>
-      <c r="N33" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="34">
@@ -2160,1011 +2148,1011 @@
         <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C34" t="n">
-        <v>7.0678907E7</v>
+        <v>8.8086908E7</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="K34" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="L34" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C35" t="n">
-        <v>6.5003409E7</v>
+        <v>1.4384614E7</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="K35" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L35" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="M35" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N35" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C36" t="n">
-        <v>7.21599E7</v>
+        <v>2.4733753E7</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="L36" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="M36" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N36" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C37" t="n">
-        <v>9.2156716E7</v>
+        <v>4.0105504E7</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
         <v>33</v>
       </c>
-      <c r="F37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" t="s">
-        <v>40</v>
-      </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="J37" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K37" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="L37" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M37" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="N37" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="C38" t="n">
-        <v>7.718497E7</v>
+        <v>6.6443952E7</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I38" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="J38" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" t="s">
+        <v>118</v>
+      </c>
+      <c r="N38" t="s">
         <v>34</v>
-      </c>
-      <c r="M38" t="s">
-        <v>30</v>
-      </c>
-      <c r="N38" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C39" t="n">
-        <v>8.4621789E7</v>
+        <v>7.2110979E7</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I39" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="J39" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K39" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M39" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="N39" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C40" t="n">
-        <v>3.3820252E7</v>
+        <v>3.467847E7</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I40" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="J40" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="L40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M40" t="s">
+        <v>112</v>
+      </c>
+      <c r="N40" t="s">
         <v>70</v>
-      </c>
-      <c r="M40" t="s">
-        <v>120</v>
-      </c>
-      <c r="N40" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C41" t="n">
-        <v>9.6582296E7</v>
+        <v>7.6291029E7</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="L41" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="M41" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="N41" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C42" t="n">
-        <v>9.9390645E7</v>
+        <v>3.9122997E7</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" t="s">
         <v>83</v>
       </c>
-      <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" t="s">
-        <v>34</v>
-      </c>
-      <c r="J42" t="s">
-        <v>25</v>
-      </c>
       <c r="K42" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="L42" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M42" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="N42" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C43" t="n">
-        <v>5.9199589E7</v>
+        <v>2.6841211E7</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="I43" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="L43" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="M43" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="N43" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C44" t="n">
-        <v>8.9975224E7</v>
+        <v>9.1307668E7</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" t="s">
+        <v>118</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" t="s">
+        <v>70</v>
+      </c>
+      <c r="L44" t="s">
         <v>69</v>
       </c>
-      <c r="G44" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" t="s">
-        <v>73</v>
-      </c>
-      <c r="I44" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" t="s">
-        <v>149</v>
-      </c>
-      <c r="K44" t="s">
-        <v>66</v>
-      </c>
-      <c r="L44" t="s">
-        <v>17</v>
-      </c>
       <c r="M44" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N44" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C45" t="n">
-        <v>5.7167373E7</v>
+        <v>1.5761685E7</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M45" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N45" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="C46" t="n">
-        <v>4.9051652E7</v>
+        <v>7.8149837E7</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="I46" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J46" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="K46" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="L46" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M46" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="N46" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
         <v>179</v>
       </c>
-      <c r="B47" t="s">
-        <v>180</v>
-      </c>
       <c r="C47" t="n">
-        <v>2.8839634E7</v>
+        <v>3.7016669E7</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I47" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="K47" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="L47" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M47" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="N47" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
         <v>181</v>
       </c>
-      <c r="B48" t="s">
-        <v>182</v>
-      </c>
       <c r="C48" t="n">
-        <v>4.8535432E7</v>
+        <v>6.6388639E7</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M48" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="N48" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" t="s">
         <v>183</v>
       </c>
-      <c r="B49" t="s">
-        <v>130</v>
-      </c>
       <c r="C49" t="n">
-        <v>2.5512425E7</v>
+        <v>5.947376E7</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
       </c>
       <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" t="s">
+        <v>148</v>
+      </c>
+      <c r="H49" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" t="s">
+        <v>89</v>
+      </c>
+      <c r="J49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K49" t="s">
+        <v>112</v>
+      </c>
+      <c r="L49" t="s">
+        <v>69</v>
+      </c>
+      <c r="M49" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" t="s">
         <v>35</v>
-      </c>
-      <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" t="s">
-        <v>83</v>
-      </c>
-      <c r="H49" t="s">
-        <v>69</v>
-      </c>
-      <c r="I49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" t="s">
-        <v>62</v>
-      </c>
-      <c r="L49" t="s">
-        <v>17</v>
-      </c>
-      <c r="M49" t="s">
-        <v>120</v>
-      </c>
-      <c r="N49" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C50" t="n">
-        <v>1.1918299E7</v>
+        <v>9.7388834E7</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="J50" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="L50" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="M50" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="N50" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C51" t="n">
-        <v>2.7046002E7</v>
+        <v>2.7270476E7</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H51" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="J51" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K51" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L51" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M51" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="N51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C52" t="n">
-        <v>1.2544848E7</v>
+        <v>3.0383166E7</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="I52" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="J52" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="K52" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M52" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N52" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="C53" t="n">
-        <v>3.5783373E7</v>
+        <v>7.3272111E7</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H53" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J53" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L53" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="M53" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="N53" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C54" t="n">
-        <v>7.939618E7</v>
+        <v>1.4038055E7</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="H54" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="I54" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="K54" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L54" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="M54" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="N54" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C55" t="n">
-        <v>1.9545816E7</v>
+        <v>5.4987056E7</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H55" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="L55" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="M55" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C56" t="n">
-        <v>5.4663984E7</v>
+        <v>1.3673E7</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="H56" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="I56" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="J56" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K56" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="L56" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N56" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -3175,40 +3163,40 @@
         <v>197</v>
       </c>
       <c r="C57" t="n">
-        <v>6.4363813E7</v>
+        <v>7.0858947E7</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="I57" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J57" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="L57" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="M57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N57" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58">
@@ -3219,172 +3207,172 @@
         <v>199</v>
       </c>
       <c r="C58" t="n">
-        <v>8.7884616E7</v>
+        <v>6.3277246E7</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="I58" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K58" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="L58" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="M58" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="N58" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
         <v>200</v>
       </c>
-      <c r="B59" t="s">
-        <v>201</v>
-      </c>
       <c r="C59" t="n">
-        <v>9.8579354E7</v>
+        <v>4.8185123E7</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H59" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="K59" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="L59" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="M59" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="N59" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="C60" t="n">
-        <v>2.3946902E7</v>
+        <v>8.4687217E7</v>
       </c>
       <c r="D60" t="s">
         <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H60" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I60" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="J60" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="L60" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="M60" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="N60" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="C61" t="n">
-        <v>4.188762E7</v>
+        <v>6.2878913E7</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="H61" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="J61" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="L61" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M61" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="N61" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/StudentPreference60.xlsx
+++ b/StudentPreference60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="204">
   <si>
     <t>First Name</t>
   </si>
@@ -56,568 +56,574 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Strom</t>
-  </si>
-  <si>
-    <t>Thurmond</t>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Mendes</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>eluding electronic ghosts</t>
+  </si>
+  <si>
+    <t>rescuing damsels in distress</t>
+  </si>
+  <si>
+    <t>drinking one's life away</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization</t>
+  </si>
+  <si>
+    <t>surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>going on commando missions</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>organizing armed robberies</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Patterson</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>writing cook books</t>
-  </si>
-  <si>
-    <t>singing protest songs</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>making dumb comedies</t>
+  </si>
+  <si>
+    <t>making insipid musicals</t>
+  </si>
+  <si>
+    <t>seducing women</t>
+  </si>
+  <si>
+    <t>opening new markets</t>
+  </si>
+  <si>
+    <t>making fantasy movies</t>
+  </si>
+  <si>
+    <t>writing bad movies</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Kaline</t>
+  </si>
+  <si>
+    <t>writing sonnets</t>
+  </si>
+  <si>
+    <t>painting abstract pictures</t>
+  </si>
+  <si>
+    <t>eluding the FBI</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>shopping for shoes</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Carre</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
+  </si>
+  <si>
+    <t>running a school for gifted teens</t>
+  </si>
+  <si>
+    <t>transforming into vehicles</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>hosting radio shows</t>
+  </si>
+  <si>
+    <t>terrorizing employees</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>Minnie</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>transcending physical limits</t>
+  </si>
+  <si>
+    <t>flaunting foppish fashions</t>
+  </si>
+  <si>
+    <t>studying mathematics</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>entertaining teenagers</t>
+  </si>
+  <si>
+    <t>treating the sick with jokes</t>
+  </si>
+  <si>
+    <t>crooning love songs</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Elliott</t>
+  </si>
+  <si>
+    <t>directing bad movies</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>hitting home runs</t>
+  </si>
+  <si>
+    <t>directing action movies</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes</t>
+  </si>
+  <si>
+    <t>forming new social connections</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>launching hostile takeovers</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Sheen</t>
+  </si>
+  <si>
+    <t>writing detective fiction</t>
+  </si>
+  <si>
+    <t>Rupert</t>
+  </si>
+  <si>
+    <t>Murdoch</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>stealing lunch money</t>
+  </si>
+  <si>
+    <t>Mumy</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>directing violent movies</t>
+  </si>
+  <si>
+    <t>starring in kung-fu movies</t>
   </si>
   <si>
     <t>chasing after women</t>
   </si>
   <si>
-    <t>directing action movies</t>
-  </si>
-  <si>
-    <t>writing comedy</t>
-  </si>
-  <si>
-    <t>painting self-portraits</t>
-  </si>
-  <si>
-    <t>making propagandistic movies</t>
-  </si>
-  <si>
-    <t>playing the piano</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>feeding the poor</t>
-  </si>
-  <si>
-    <t>driving around America</t>
-  </si>
-  <si>
-    <t>ranting about politics</t>
-  </si>
-  <si>
-    <t>hiding from extremists</t>
-  </si>
-  <si>
-    <t>promoting feminism</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>pushing haute couture</t>
-  </si>
-  <si>
-    <t>Joe</t>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Grouch</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>mooching from neighbors</t>
+  </si>
+  <si>
+    <t>running a hardware company</t>
+  </si>
+  <si>
+    <t>rooting out spies</t>
+  </si>
+  <si>
+    <t>complaining about big brother</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Lizzie</t>
+  </si>
+  <si>
+    <t>Borden</t>
+  </si>
+  <si>
+    <t>Merle</t>
+  </si>
+  <si>
+    <t>Haggard</t>
+  </si>
+  <si>
+    <t>being condescending to customers</t>
+  </si>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Rimbaud</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Robbins</t>
+  </si>
+  <si>
+    <t>singing to teenagers</t>
+  </si>
+  <si>
+    <t>spreading revolution</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Calder</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Bloomberg</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Cummings</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Cyndi</t>
+  </si>
+  <si>
+    <t>Lauper</t>
+  </si>
+  <si>
+    <t>Mary-Kate</t>
+  </si>
+  <si>
+    <t>Olsen</t>
+  </si>
+  <si>
+    <t>writing for the New Yorker</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>Alicia</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Breslin</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Aiello</t>
+  </si>
+  <si>
+    <t>Princess</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Hugh</t>
+  </si>
+  <si>
+    <t>Beaumont</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Fonda</t>
   </si>
   <si>
     <t>Lewis</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>offering medical opinions</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>chasing electronic ghosts</t>
-  </si>
-  <si>
-    <t>making money</t>
-  </si>
-  <si>
-    <t>making condescending remarks</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>fencing stolen goods</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>carrying secret plans</t>
-  </si>
-  <si>
-    <t>Ken</t>
-  </si>
-  <si>
-    <t>Follett</t>
-  </si>
-  <si>
-    <t>pushing the hardline</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
-  </si>
-  <si>
-    <t>guarding the galaxy</t>
-  </si>
-  <si>
-    <t>smoking herb</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>Bud</t>
-  </si>
-  <si>
-    <t>Collyer</t>
-  </si>
-  <si>
-    <t>performing serious acting</t>
-  </si>
-  <si>
-    <t>signing sports memorabilia</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>jumping over buses on motorbikes</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Haley</t>
-  </si>
-  <si>
-    <t>writing pot-boilers</t>
-  </si>
-  <si>
-    <t>suppressing minorities</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Farley</t>
-  </si>
-  <si>
-    <t>gossiping with galpals</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>preaching tolerance</t>
-  </si>
-  <si>
-    <t>Jasper</t>
-  </si>
-  <si>
-    <t>Johns</t>
-  </si>
-  <si>
-    <t>telling bad jokes</t>
-  </si>
-  <si>
-    <t>looking after mother</t>
-  </si>
-  <si>
-    <t>moaning about women</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>Arkin</t>
-  </si>
-  <si>
-    <t>making bad movies</t>
-  </si>
-  <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>complaining about capitalism</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Cullen</t>
-  </si>
-  <si>
-    <t>brewing magican potions</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Webber</t>
-  </si>
-  <si>
-    <t>Michele</t>
+    <t>Astin</t>
+  </si>
+  <si>
+    <t>Iommi</t>
+  </si>
+  <si>
+    <t>Divine</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>making topiary sculptures</t>
+  </si>
+  <si>
+    <t>Brandon</t>
   </si>
   <si>
     <t>Lee</t>
   </si>
   <si>
-    <t>directing movies</t>
-  </si>
-  <si>
-    <t>over-acting</t>
-  </si>
-  <si>
-    <t>fighting Carthaginians</t>
-  </si>
-  <si>
-    <t>performing Web searches</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Irving</t>
-  </si>
-  <si>
-    <t>selling chrystal meth</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Calder</t>
-  </si>
-  <si>
-    <t>M.</t>
-  </si>
-  <si>
-    <t>Hammer</t>
-  </si>
-  <si>
-    <t>Jeff</t>
-  </si>
-  <si>
-    <t>Foxworthy</t>
-  </si>
-  <si>
-    <t>writing political satires</t>
+    <t>Susannah</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Chuck</t>
+  </si>
+  <si>
+    <t>Daly</t>
   </si>
   <si>
     <t>ranting about liberals</t>
   </si>
   <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Lange</t>
-  </si>
-  <si>
-    <t>Solanus</t>
-  </si>
-  <si>
-    <t>Casey</t>
-  </si>
-  <si>
-    <t>writing modern poetry</t>
-  </si>
-  <si>
-    <t>promoting Objectivism</t>
-  </si>
-  <si>
-    <t>Liz</t>
-  </si>
-  <si>
-    <t>McClarnon</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>Connie</t>
-  </si>
-  <si>
-    <t>Chung</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
-    <t>Damon</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>Gwen</t>
-  </si>
-  <si>
-    <t>Stefani</t>
-  </si>
-  <si>
-    <t>Nicol</t>
-  </si>
-  <si>
-    <t>Williamson</t>
-  </si>
-  <si>
-    <t>singing to teenagers</t>
-  </si>
-  <si>
-    <t>Nathaniel</t>
-  </si>
-  <si>
-    <t>Currier</t>
-  </si>
-  <si>
-    <t>writing serialized stories</t>
-  </si>
-  <si>
-    <t>leaking state secrets</t>
-  </si>
-  <si>
-    <t>Landon</t>
-  </si>
-  <si>
-    <t>Donovan</t>
-  </si>
-  <si>
-    <t>Danny</t>
-  </si>
-  <si>
-    <t>Glover</t>
-  </si>
-  <si>
-    <t>Rue</t>
-  </si>
-  <si>
-    <t>McClanahan</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Dizzy</t>
-  </si>
-  <si>
-    <t>Dean</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Nicklaus</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>Christina</t>
-  </si>
-  <si>
-    <t>Aguilara</t>
-  </si>
-  <si>
-    <t>Emmett</t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
-    <t>Sammy</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>Arnold</t>
-  </si>
-  <si>
-    <t>Schwartineger</t>
-  </si>
-  <si>
-    <t>Mel</t>
-  </si>
-  <si>
-    <t>Blanc</t>
-  </si>
-  <si>
-    <t>writing romantic poetry</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Goldman</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>Wood</t>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>Sprouse</t>
+  </si>
+  <si>
+    <t>Patti</t>
+  </si>
+  <si>
+    <t>LaBelle</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Hopkin</t>
+  </si>
+  <si>
+    <t>Paxton</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>Mathis</t>
+  </si>
+  <si>
+    <t>Valerie</t>
+  </si>
+  <si>
+    <t>Bertinelli</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>Niki</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Donny</t>
+  </si>
+  <si>
+    <t>Osmond</t>
+  </si>
+  <si>
+    <t>knocking out opponents</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>making cartoons</t>
+  </si>
+  <si>
+    <t>Huntz</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Noel</t>
+  </si>
+  <si>
+    <t>Stookey</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Louis-Dreyfus</t>
+  </si>
+  <si>
+    <t>Norah</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Carew</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Palin</t>
   </si>
   <si>
     <t>Lauren</t>
   </si>
   <si>
-    <t>Tewes</t>
-  </si>
-  <si>
-    <t>Ed</t>
-  </si>
-  <si>
-    <t>Harris</t>
-  </si>
-  <si>
-    <t>Fayard</t>
-  </si>
-  <si>
-    <t>Nicholas</t>
-  </si>
-  <si>
-    <t>Shaquille</t>
-  </si>
-  <si>
-    <t>Oneil</t>
-  </si>
-  <si>
-    <t>Estelle</t>
-  </si>
-  <si>
-    <t>Halliwell</t>
-  </si>
-  <si>
-    <t>Michelangelo</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Hugh</t>
-  </si>
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Warhol</t>
-  </si>
-  <si>
-    <t>Chester</t>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Elke</t>
-  </si>
-  <si>
-    <t>Sommer</t>
-  </si>
-  <si>
-    <t>Maureen</t>
-  </si>
-  <si>
-    <t>Stapleton</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Dreyfus</t>
-  </si>
-  <si>
-    <t>Salman</t>
-  </si>
-  <si>
-    <t>Rushdie</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>Madeline</t>
-  </si>
-  <si>
-    <t>LEngle</t>
-  </si>
-  <si>
-    <t>Quintanilla</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Keith</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Donaldson</t>
-  </si>
-  <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>James</t>
+    <t>Conrad</t>
   </si>
 </sst>
 </file>
@@ -676,19 +682,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.9140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.54296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.95703125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.69921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.97265625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="31.40625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="31.97265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="28.47265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="31.97265625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="31.97265625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="31.97265625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="31.97265625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="31.40625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="31.40625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="35.5625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="35.5625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="35.5625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="35.4296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="35.4296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="35.5625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="35.4296875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="35.5625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="35.5625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="35.5625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -743,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>3.6876467E7</v>
+        <v>6.5032978E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -787,345 +793,345 @@
         <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>1.2027315E7</v>
+        <v>8.349809E7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>4.1254643E7</v>
+        <v>8.1546672E7</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
         <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.9159681E7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.2025817E7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
         <v>55</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="n">
+        <v>8.3886656E7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="n">
-        <v>7.016157E7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
         <v>59</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>61</v>
       </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
         <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="n">
+        <v>2.0084317E7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" t="n">
-        <v>8.6236207E7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
         <v>67</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>69</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
         <v>70</v>
       </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" t="s">
-        <v>72</v>
-      </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.4289175E7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
+      <c r="L8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" t="n">
-        <v>2.593255E7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" t="s">
         <v>76</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0629125E7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
         <v>79</v>
       </c>
-      <c r="B9" t="s">
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>80</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.1002725E7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
         <v>81</v>
       </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
       <c r="C10" t="n">
-        <v>4.1734633E7</v>
+        <v>1.1421256E7</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" t="s">
         <v>86</v>
-      </c>
-      <c r="F10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" t="s">
-        <v>70</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
@@ -1133,134 +1139,134 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C11" t="n">
-        <v>1.6535785E7</v>
+        <v>4.9848338E7</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
         <v>82</v>
       </c>
-      <c r="L11" t="s">
-        <v>49</v>
-      </c>
       <c r="M11" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" t="n">
-        <v>2.3502451E7</v>
+        <v>1.0878336E7</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="N12" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>96</v>
       </c>
       <c r="C13" t="n">
-        <v>9.4981937E7</v>
+        <v>2.9524216E7</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="M13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1271,304 +1277,304 @@
         <v>102</v>
       </c>
       <c r="C14" t="n">
-        <v>1.5459443E7</v>
+        <v>8.4858351E7</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
         <v>103</v>
       </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" t="s">
-        <v>49</v>
-      </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" t="s">
         <v>45</v>
       </c>
-      <c r="M14" t="s">
-        <v>56</v>
-      </c>
       <c r="N14" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C15" t="n">
-        <v>9.6624986E7</v>
+        <v>7.6033659E7</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" t="s">
         <v>49</v>
       </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N15" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C16" t="n">
-        <v>7.48659E7</v>
+        <v>8.3948773E7</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" t="s">
-        <v>83</v>
-      </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C17" t="n">
-        <v>8.2819442E7</v>
+        <v>4.0681548E7</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" t="s">
-        <v>112</v>
-      </c>
       <c r="M17" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N17" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C18" t="n">
-        <v>9.0379388E7</v>
+        <v>3.8240138E7</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N18" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C19" t="n">
-        <v>3.3963429E7</v>
+        <v>6.0703304E7</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" t="s">
         <v>117</v>
       </c>
-      <c r="K19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" t="s">
-        <v>118</v>
-      </c>
       <c r="M19" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="N19" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" t="n">
-        <v>9.7900401E7</v>
+        <v>9.679212E7</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="M20" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="N20" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -1579,216 +1585,216 @@
         <v>123</v>
       </c>
       <c r="C21" t="n">
-        <v>8.5235506E7</v>
+        <v>5.3482475E7</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="M21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N21" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C22" t="n">
-        <v>6.9155257E7</v>
+        <v>8.0506875E7</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" t="s">
         <v>49</v>
-      </c>
-      <c r="K22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" t="n">
-        <v>6.1151372E7</v>
+        <v>4.1420491E7</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="N23" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C24" t="n">
-        <v>3.364625E7</v>
+        <v>9.697259E7</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" t="s">
         <v>35</v>
       </c>
-      <c r="H24" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" t="s">
-        <v>131</v>
-      </c>
       <c r="N24" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C25" t="n">
-        <v>6.6508763E7</v>
+        <v>1.5988877E7</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" t="s">
         <v>62</v>
       </c>
-      <c r="J25" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" t="s">
-        <v>97</v>
-      </c>
-      <c r="L25" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" t="s">
-        <v>71</v>
-      </c>
       <c r="N25" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1799,260 +1805,260 @@
         <v>137</v>
       </c>
       <c r="C26" t="n">
-        <v>5.5438563E7</v>
+        <v>7.4658719E7</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="J26" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="K26" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="L26" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="M26" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="N26" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C27" t="n">
-        <v>7.2817017E7</v>
+        <v>4.1518196E7</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" t="s">
         <v>53</v>
       </c>
-      <c r="K27" t="s">
-        <v>56</v>
-      </c>
       <c r="L27" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M27" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="N27" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C28" t="n">
-        <v>5.5127672E7</v>
+        <v>5.6412843E7</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="F28" t="s">
         <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M28" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C29" t="n">
-        <v>5.1421729E7</v>
+        <v>4.8286895E7</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="M29" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="N29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C30" t="n">
-        <v>1.1791745E7</v>
+        <v>5.9919734E7</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s">
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="L30" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="M30" t="s">
         <v>45</v>
       </c>
       <c r="N30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" t="n">
-        <v>1.9047447E7</v>
+        <v>7.4991114E7</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="J31" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L31" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="M31" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="N31" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -2063,40 +2069,40 @@
         <v>150</v>
       </c>
       <c r="C32" t="n">
-        <v>6.6567886E7</v>
+        <v>9.3262805E7</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" t="s">
         <v>69</v>
       </c>
-      <c r="F32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" t="s">
-        <v>63</v>
-      </c>
       <c r="J32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" t="s">
+        <v>100</v>
+      </c>
+      <c r="M32" t="s">
         <v>67</v>
       </c>
-      <c r="K32" t="s">
-        <v>62</v>
-      </c>
-      <c r="L32" t="s">
-        <v>148</v>
-      </c>
-      <c r="M32" t="s">
-        <v>31</v>
-      </c>
       <c r="N32" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -2107,40 +2113,40 @@
         <v>152</v>
       </c>
       <c r="C33" t="n">
-        <v>3.6140445E7</v>
+        <v>8.6612432E7</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="M33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N33" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
@@ -2148,1231 +2154,1231 @@
         <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C34" t="n">
-        <v>8.8086908E7</v>
+        <v>5.4609825E7</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" t="s">
         <v>18</v>
       </c>
-      <c r="J34" t="s">
-        <v>154</v>
-      </c>
-      <c r="K34" t="s">
-        <v>118</v>
-      </c>
-      <c r="L34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" t="s">
-        <v>21</v>
-      </c>
       <c r="N34" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>155</v>
       </c>
       <c r="C35" t="n">
-        <v>1.4384614E7</v>
+        <v>8.3945908E7</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" t="s">
         <v>81</v>
       </c>
-      <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" t="s">
-        <v>53</v>
-      </c>
-      <c r="I35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" t="s">
-        <v>55</v>
-      </c>
-      <c r="M35" t="s">
-        <v>43</v>
-      </c>
       <c r="N35" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
         <v>156</v>
       </c>
-      <c r="B36" t="s">
-        <v>157</v>
-      </c>
       <c r="C36" t="n">
-        <v>2.4733753E7</v>
+        <v>7.4126996E7</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="I36" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K36" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="L36" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="M36" t="s">
         <v>61</v>
       </c>
       <c r="N36" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C37" t="n">
-        <v>4.0105504E7</v>
+        <v>3.6679845E7</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="I37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J37" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M37" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="N37" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C38" t="n">
-        <v>6.6443952E7</v>
+        <v>8.0870238E7</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="K38" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="L38" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="M38" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="N38" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
         <v>162</v>
       </c>
-      <c r="B39" t="s">
-        <v>163</v>
-      </c>
       <c r="C39" t="n">
-        <v>7.2110979E7</v>
+        <v>1.2945333E7</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="K39" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L39" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M39" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N39" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" t="s">
         <v>164</v>
       </c>
-      <c r="B40" t="s">
-        <v>165</v>
-      </c>
       <c r="C40" t="n">
-        <v>3.467847E7</v>
+        <v>4.4157805E7</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s">
+        <v>108</v>
+      </c>
+      <c r="J40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" t="s">
         <v>26</v>
       </c>
-      <c r="H40" t="s">
-        <v>68</v>
-      </c>
-      <c r="I40" t="s">
-        <v>134</v>
-      </c>
-      <c r="J40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40" t="s">
-        <v>88</v>
-      </c>
       <c r="L40" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="M40" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N40" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
         <v>166</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="n">
+        <v>3.8331591E7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>167</v>
       </c>
-      <c r="C41" t="n">
-        <v>7.6291029E7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
       <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" t="s">
+        <v>45</v>
+      </c>
+      <c r="M41" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" t="s">
         <v>35</v>
-      </c>
-      <c r="H41" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" t="s">
-        <v>89</v>
-      </c>
-      <c r="K41" t="s">
-        <v>60</v>
-      </c>
-      <c r="L41" t="s">
-        <v>36</v>
-      </c>
-      <c r="M41" t="s">
-        <v>112</v>
-      </c>
-      <c r="N41" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
         <v>168</v>
       </c>
-      <c r="B42" t="s">
-        <v>169</v>
-      </c>
       <c r="C42" t="n">
-        <v>3.9122997E7</v>
+        <v>3.721932E7</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="L42" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="M42" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="N42" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" t="s">
         <v>170</v>
       </c>
-      <c r="B43" t="s">
-        <v>171</v>
-      </c>
       <c r="C43" t="n">
-        <v>2.6841211E7</v>
+        <v>7.0430413E7</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" t="s">
         <v>44</v>
       </c>
-      <c r="H43" t="s">
-        <v>103</v>
-      </c>
-      <c r="I43" t="s">
-        <v>41</v>
-      </c>
-      <c r="J43" t="s">
-        <v>76</v>
-      </c>
       <c r="K43" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L43" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="M43" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N43" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" t="s">
         <v>172</v>
       </c>
-      <c r="B44" t="s">
-        <v>173</v>
-      </c>
       <c r="C44" t="n">
-        <v>9.1307668E7</v>
+        <v>8.1903106E7</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="J44" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L44" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="M44" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="N44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" t="s">
         <v>174</v>
       </c>
-      <c r="B45" t="s">
-        <v>175</v>
-      </c>
       <c r="C45" t="n">
-        <v>1.5761685E7</v>
+        <v>8.6736103E7</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="N45" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C46" t="n">
-        <v>7.8149837E7</v>
+        <v>6.4025399E7</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="K46" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L46" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M46" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N46" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C47" t="n">
-        <v>3.7016669E7</v>
+        <v>9.2418495E7</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="L47" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="M47" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="N47" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C48" t="n">
-        <v>6.6388639E7</v>
+        <v>7.2303821E7</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K48" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="L48" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M48" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="N48" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C49" t="n">
-        <v>5.947376E7</v>
+        <v>9.8525874E7</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
       </c>
       <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
         <v>20</v>
       </c>
-      <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" t="s">
-        <v>148</v>
-      </c>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="M49" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N49" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C50" t="n">
-        <v>9.7388834E7</v>
+        <v>1.108021E7</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" t="s">
+        <v>97</v>
+      </c>
+      <c r="K50" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" t="s">
+        <v>100</v>
+      </c>
+      <c r="M50" t="s">
+        <v>59</v>
+      </c>
+      <c r="N50" t="s">
         <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>44</v>
-      </c>
-      <c r="I50" t="s">
-        <v>55</v>
-      </c>
-      <c r="J50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K50" t="s">
-        <v>126</v>
-      </c>
-      <c r="L50" t="s">
-        <v>53</v>
-      </c>
-      <c r="M50" t="s">
-        <v>103</v>
-      </c>
-      <c r="N50" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C51" t="n">
-        <v>2.7270476E7</v>
+        <v>5.0655951E7</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s">
         <v>100</v>
       </c>
-      <c r="G51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H51" t="s">
-        <v>73</v>
-      </c>
-      <c r="I51" t="s">
-        <v>112</v>
-      </c>
       <c r="J51" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="K51" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="L51" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="M51" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="N51" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C52" t="n">
-        <v>3.0383166E7</v>
+        <v>5.9102372E7</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="G52" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" t="s">
+        <v>109</v>
+      </c>
+      <c r="I52" t="s">
         <v>18</v>
       </c>
-      <c r="H52" t="s">
-        <v>70</v>
-      </c>
-      <c r="I52" t="s">
-        <v>118</v>
-      </c>
       <c r="J52" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K52" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L52" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M52" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="N52" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="C53" t="n">
-        <v>7.3272111E7</v>
+        <v>1.0304123E7</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="G53" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K53" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="L53" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="M53" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="N53" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C54" t="n">
-        <v>1.4038055E7</v>
+        <v>5.4047766E7</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" t="s">
         <v>73</v>
       </c>
-      <c r="G54" t="s">
-        <v>135</v>
-      </c>
-      <c r="H54" t="s">
-        <v>72</v>
-      </c>
-      <c r="I54" t="s">
-        <v>88</v>
-      </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K54" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="L54" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="M54" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="N54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C55" t="n">
-        <v>5.4987056E7</v>
+        <v>3.8549552E7</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H55" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="I55" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="K55" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="L55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M55" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N55" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C56" t="n">
-        <v>1.3673E7</v>
+        <v>1.212661E7</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="I56" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="L56" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N56" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" t="s">
         <v>196</v>
       </c>
-      <c r="B57" t="s">
-        <v>197</v>
-      </c>
       <c r="C57" t="n">
-        <v>7.0858947E7</v>
+        <v>2.4239168E7</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="H57" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J57" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="L57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M57" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="N57" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" t="s">
         <v>198</v>
       </c>
-      <c r="B58" t="s">
-        <v>199</v>
-      </c>
       <c r="C58" t="n">
-        <v>6.3277246E7</v>
+        <v>4.3527839E7</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
         <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="H58" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I58" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="J58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K58" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="L58" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="M58" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="N58" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="C59" t="n">
-        <v>4.8185123E7</v>
+        <v>7.7022547E7</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H59" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="I59" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="J59" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="K59" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L59" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="M59" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N59" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="C60" t="n">
-        <v>8.4687217E7</v>
+        <v>2.6010521E7</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H60" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="I60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="K60" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="L60" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="M60" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="N60" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="C61" t="n">
-        <v>6.2878913E7</v>
+        <v>3.3265789E7</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="G61" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" t="s">
+        <v>63</v>
+      </c>
+      <c r="J61" t="s">
+        <v>80</v>
+      </c>
+      <c r="K61" t="s">
+        <v>74</v>
+      </c>
+      <c r="L61" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" t="s">
+        <v>76</v>
+      </c>
+      <c r="N61" t="s">
         <v>43</v>
-      </c>
-      <c r="I61" t="s">
-        <v>49</v>
-      </c>
-      <c r="J61" t="s">
-        <v>82</v>
-      </c>
-      <c r="K61" t="s">
-        <v>48</v>
-      </c>
-      <c r="L61" t="s">
-        <v>47</v>
-      </c>
-      <c r="M61" t="s">
-        <v>126</v>
-      </c>
-      <c r="N61" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/StudentPreference60.xlsx
+++ b/StudentPreference60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="208">
   <si>
     <t>First Name</t>
   </si>
@@ -56,580 +56,586 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Tim</t>
+    <t>Kitty</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>chasing jellyfish</t>
+  </si>
+  <si>
+    <t>retiring replicants</t>
+  </si>
+  <si>
+    <t>looking after children</t>
+  </si>
+  <si>
+    <t>defending the Earth</t>
+  </si>
+  <si>
+    <t>cooking for friends</t>
+  </si>
+  <si>
+    <t>squabbling on television</t>
+  </si>
+  <si>
+    <t>drinking one's life away</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>Strom</t>
+  </si>
+  <si>
+    <t>Thurmond</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>playing classical piano</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>competing in the Olympics</t>
+  </si>
+  <si>
+    <t>licking frogs</t>
+  </si>
+  <si>
+    <t>singing parody songs</t>
+  </si>
+  <si>
+    <t>conducting illicit affairs</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Zappa</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>chasing old women</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>causing political scandals</t>
+  </si>
+  <si>
+    <t>H.P.</t>
+  </si>
+  <si>
+    <t>Lovecraft</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Slater</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>robbing banks</t>
+  </si>
+  <si>
+    <t>suppressing minorities</t>
+  </si>
+  <si>
+    <t>waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t>Yeltsin</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>killing people in ingenious ways</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>fighting the forces of good</t>
+  </si>
+  <si>
+    <t>developing cunning plans</t>
+  </si>
+  <si>
+    <t>singing goofy songs</t>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>Burstyn</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>escaping from water tanks</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>hunting raccoons</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>watching TV</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>ranting about minorities</t>
+  </si>
+  <si>
+    <t>evading mercenaries</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t>Severinsen</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>making fantasy movies</t>
+  </si>
+  <si>
+    <t>running a hardware company</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Henson</t>
+  </si>
+  <si>
+    <t>making dumb comedies</t>
+  </si>
+  <si>
+    <t>manipulating ingenues</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Kersee</t>
+  </si>
+  <si>
+    <t>campaigning for world peace</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>DeGarmo</t>
+  </si>
+  <si>
+    <t>Swain</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>rooting out moles</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Lightfoot</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Little</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>directing comedies</t>
+  </si>
+  <si>
+    <t>explaining natural selection</t>
+  </si>
+  <si>
+    <t>getting plastic surgery</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Wallace</t>
+  </si>
+  <si>
+    <t>writing mystery stories</t>
+  </si>
+  <si>
+    <t>Adolf</t>
+  </si>
+  <si>
+    <t>Hitler</t>
+  </si>
+  <si>
+    <t>promoting new technologies</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>Jermaine</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Santa</t>
+  </si>
+  <si>
+    <t>promoting enlightenment</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Flatley</t>
+  </si>
+  <si>
+    <t>singing opera arias</t>
+  </si>
+  <si>
+    <t>Candace</t>
+  </si>
+  <si>
+    <t>Bergen</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>Noth</t>
+  </si>
+  <si>
+    <t>Gordie</t>
+  </si>
+  <si>
+    <t>Howe</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Marciano</t>
+  </si>
+  <si>
+    <t>being a good neighbor</t>
+  </si>
+  <si>
+    <t>promoting diversity</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Lerner</t>
+  </si>
+  <si>
+    <t>Burt</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Bobby</t>
+  </si>
+  <si>
+    <t>Flay</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Garner</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Bernhard</t>
+  </si>
+  <si>
+    <t>Lord</t>
+  </si>
+  <si>
+    <t>Baden-Powell</t>
+  </si>
+  <si>
+    <t>Leakey</t>
+  </si>
+  <si>
+    <t>playing drums</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Lindsey</t>
+  </si>
+  <si>
+    <t>Buckingham</t>
+  </si>
+  <si>
+    <t>Vladimir</t>
+  </si>
+  <si>
+    <t>Putin</t>
   </si>
   <si>
     <t>Allen</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
+    <t>Ludden</t>
+  </si>
+  <si>
+    <t>Spiro</t>
+  </si>
+  <si>
+    <t>Agnew</t>
+  </si>
+  <si>
+    <t>Yves</t>
+  </si>
+  <si>
+    <t>Laurent</t>
+  </si>
+  <si>
+    <t>Crichton</t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>Clayburgh</t>
+  </si>
+  <si>
+    <t>Alda</t>
+  </si>
+  <si>
+    <t>Fabian</t>
   </si>
   <si>
     <t>running an empire</t>
   </si>
   <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>undermining authority</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>Malle</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>singing to teenagers</t>
-  </si>
-  <si>
-    <t>having meltdowns in public</t>
-  </si>
-  <si>
-    <t>investing money</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Adams</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>bullying schoolkids</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>eluding hunters</t>
-  </si>
-  <si>
-    <t>hunting monsters</t>
-  </si>
-  <si>
-    <t>incurring debts</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>nursing a messiah complex</t>
-  </si>
-  <si>
-    <t>Pete</t>
-  </si>
-  <si>
-    <t>Rozelle</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>studying magic</t>
-  </si>
-  <si>
-    <t>performing office chores</t>
-  </si>
-  <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Blige</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Harold</t>
-  </si>
-  <si>
-    <t>Pinter</t>
-  </si>
-  <si>
-    <t>writing hawkish memos</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>Horatio</t>
-  </si>
-  <si>
-    <t>Alger</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>singing jazz songs</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>Maurice</t>
-  </si>
-  <si>
-    <t>Sendak</t>
-  </si>
-  <si>
-    <t>studying gorillas up close</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>riding a bicycle</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Carlton</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>promoting nerd culture</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Reiser</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Viggo</t>
-  </si>
-  <si>
-    <t>Mortensen</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>cheating clients</t>
-  </si>
-  <si>
-    <t>Henri</t>
-  </si>
-  <si>
-    <t>Matisse</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>Kenny</t>
-  </si>
-  <si>
-    <t>Chesney</t>
-  </si>
-  <si>
-    <t>fawning on the boss</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Hetfield</t>
-  </si>
-  <si>
-    <t>designing computer systems</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>Shane</t>
-  </si>
-  <si>
-    <t>MacGowan</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Mull</t>
-  </si>
-  <si>
-    <t>spying on girls</t>
-  </si>
-  <si>
-    <t>Amadeus</t>
-  </si>
-  <si>
-    <t>Mozart</t>
-  </si>
-  <si>
-    <t>warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Brett</t>
-  </si>
-  <si>
-    <t>hosting anodyne game shows</t>
-  </si>
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>Fisher</t>
-  </si>
-  <si>
-    <t>making lewd remarks</t>
-  </si>
-  <si>
-    <t>Anita</t>
-  </si>
-  <si>
-    <t>ODay</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Isiah</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>writing cook books</t>
-  </si>
-  <si>
-    <t>Giuseppe</t>
-  </si>
-  <si>
-    <t>Verdi</t>
-  </si>
-  <si>
-    <t>tracking down fugitives</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t>Carter</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>carving magnificent statues</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Hamill</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>Lillian</t>
-  </si>
-  <si>
-    <t>Gish</t>
-  </si>
-  <si>
-    <t>Katharine</t>
-  </si>
-  <si>
-    <t>Hepburn</t>
-  </si>
-  <si>
-    <t>Robbins</t>
-  </si>
-  <si>
-    <t>Spike</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>winning swimming competitions</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>Enrique</t>
-  </si>
-  <si>
-    <t>Iglesias</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Zappa</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Mitchum</t>
-  </si>
-  <si>
-    <t>Saul</t>
-  </si>
-  <si>
-    <t>Bellow</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Casady</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Hicks</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Goodall</t>
-  </si>
-  <si>
-    <t>Danny</t>
-  </si>
-  <si>
-    <t>DeVito</t>
-  </si>
-  <si>
-    <t>Floyd</t>
-  </si>
-  <si>
-    <t>Patterson</t>
-  </si>
-  <si>
-    <t>Burt</t>
-  </si>
-  <si>
-    <t>Reynolds</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>McCartney</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Noone</t>
-  </si>
-  <si>
-    <t>Farrah</t>
-  </si>
-  <si>
-    <t>Fawcett</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>Bernhardt</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>Hilary</t>
-  </si>
-  <si>
-    <t>Duff</t>
-  </si>
-  <si>
-    <t>Donald</t>
-  </si>
-  <si>
-    <t>OConnor</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>Ethel</t>
-  </si>
-  <si>
-    <t>Kennedy</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>Christina</t>
-  </si>
-  <si>
-    <t>Aguilara</t>
-  </si>
-  <si>
-    <t>Fogelberg</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Larry</t>
-  </si>
-  <si>
-    <t>Hagman</t>
-  </si>
-  <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t>Hopkins</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>Dee</t>
-  </si>
-  <si>
-    <t>Cedric</t>
-  </si>
-  <si>
-    <t>Entertainer</t>
-  </si>
-  <si>
-    <t>Eva</t>
-  </si>
-  <si>
-    <t>Gabor</t>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Abbie</t>
+  </si>
+  <si>
+    <t>Hoffman</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>Hutton</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Robison</t>
+  </si>
+  <si>
+    <t>Gale</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>Dino</t>
+  </si>
+  <si>
+    <t>Laurentiis</t>
+  </si>
+  <si>
+    <t>Shelley</t>
+  </si>
+  <si>
+    <t>Duvall</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>Kangaroo</t>
+  </si>
+  <si>
+    <t>Attenborough</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Priestley</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>McBride</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Seaver</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Spacey</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Murray</t>
   </si>
 </sst>
 </file>
@@ -687,20 +693,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.95703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.69921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="30.421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="30.421875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="30.421875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="28.8125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.00390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.1015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.11328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.52734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.52734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="26.52734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="26.421875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="26.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="26.52734375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="26.421875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="26.421875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="26.52734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -755,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>9.3304334E7</v>
+        <v>5.8515324E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -799,172 +805,172 @@
         <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>4.527288E7</v>
+        <v>9.833955E7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0853181E7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.8200025E7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>8.5957532E7</v>
+        <v>4.2467329E7</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
         <v>54</v>
       </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
       <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
         <v>55</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.1450395E7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.0168735E7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -975,301 +981,301 @@
         <v>65</v>
       </c>
       <c r="C7" t="n">
-        <v>9.9807478E7</v>
+        <v>6.4777815E7</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>66</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>67</v>
       </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
       <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>68</v>
       </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" t="n">
-        <v>6.6247796E7</v>
+        <v>8.7940918E7</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C9" t="n">
-        <v>7.7120671E7</v>
+        <v>7.9528497E7</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0589331E7</v>
+        <v>8.2563303E7</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C11" t="n">
-        <v>5.6330186E7</v>
+        <v>8.5961746E7</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C12" t="n">
-        <v>7.4257785E7</v>
+        <v>5.0256752E7</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>6.2780971E7</v>
+        <v>9.0409708E7</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="N13" t="s">
         <v>74</v>
@@ -1277,530 +1283,530 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C14" t="n">
-        <v>7.0654511E7</v>
+        <v>3.1442766E7</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C15" t="n">
-        <v>1.4345286E7</v>
+        <v>9.7395421E7</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="L15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C16" t="n">
-        <v>8.675487E7</v>
+        <v>6.1066934E7</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="N16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C17" t="n">
-        <v>3.1648193E7</v>
+        <v>6.4064966E7</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C18" t="n">
-        <v>7.6755253E7</v>
+        <v>7.0825632E7</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="F18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" t="s">
-        <v>68</v>
-      </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="K18" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="N18" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.8879224E7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" t="s">
         <v>115</v>
       </c>
-      <c r="B19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5.4394004E7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="L19" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N19" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C20" t="n">
-        <v>9.7536505E7</v>
+        <v>5.7542732E7</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M20" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C21" t="n">
-        <v>1.5873753E7</v>
+        <v>4.4162565E7</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="M21" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C22" t="n">
-        <v>3.6259717E7</v>
+        <v>3.1381497E7</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="M22" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C23" t="n">
-        <v>4.4451848E7</v>
+        <v>5.7237959E7</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N23" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.4398889E7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
         <v>131</v>
       </c>
-      <c r="C24" t="n">
-        <v>4.1192901E7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>126</v>
-      </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="M24" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C25" t="n">
-        <v>9.0654416E7</v>
+        <v>4.5620119E7</v>
       </c>
       <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
         <v>39</v>
       </c>
-      <c r="E25" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
       <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" t="s">
         <v>87</v>
       </c>
-      <c r="J25" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" t="s">
-        <v>54</v>
-      </c>
       <c r="N25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -1811,1580 +1817,1580 @@
         <v>137</v>
       </c>
       <c r="C26" t="n">
-        <v>6.490903E7</v>
+        <v>4.7905386E7</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="M26" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="N26" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.380451E7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" t="s">
+        <v>143</v>
+      </c>
+      <c r="N27" t="s">
         <v>138</v>
-      </c>
-      <c r="B27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.7650692E7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C28" t="n">
-        <v>6.6394575E7</v>
+        <v>6.7799735E7</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="N28" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C29" t="n">
-        <v>1.654752E7</v>
+        <v>4.3714086E7</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="L29" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="M29" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="N29" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C30" t="n">
-        <v>9.2831412E7</v>
+        <v>3.154026E7</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="K30" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M30" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="N30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C31" t="n">
-        <v>5.4447739E7</v>
+        <v>8.7511154E7</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K31" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="L31" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M31" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="N31" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C32" t="n">
-        <v>8.4557632E7</v>
+        <v>1.027465E7</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" t="s">
         <v>18</v>
       </c>
-      <c r="K32" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" t="s">
-        <v>33</v>
-      </c>
       <c r="M32" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="N32" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C33" t="n">
-        <v>2.3641762E7</v>
+        <v>5.362457E7</v>
       </c>
       <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" t="s">
         <v>39</v>
       </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" t="s">
-        <v>99</v>
-      </c>
-      <c r="K33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33" t="s">
-        <v>41</v>
-      </c>
       <c r="M33" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N33" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C34" t="n">
-        <v>7.0678907E7</v>
+        <v>6.2718071E7</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="L34" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="N34" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C35" t="n">
-        <v>6.5003409E7</v>
+        <v>8.0147083E7</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="L35" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="M35" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="N35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C36" t="n">
-        <v>7.21599E7</v>
+        <v>6.0059973E7</v>
       </c>
       <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" t="s">
+        <v>118</v>
+      </c>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K36" t="s">
         <v>39</v>
       </c>
-      <c r="E36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" t="s">
-        <v>57</v>
-      </c>
       <c r="L36" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N36" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C37" t="n">
-        <v>9.2156716E7</v>
+        <v>6.046331E7</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J37" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="K37" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="L37" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="M37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N37" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C38" t="n">
-        <v>7.718497E7</v>
+        <v>8.5086535E7</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I38" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="J38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" t="s">
         <v>69</v>
       </c>
-      <c r="K38" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" t="s">
-        <v>34</v>
-      </c>
       <c r="M38" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N38" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C39" t="n">
-        <v>8.4621789E7</v>
+        <v>3.7011937E7</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J39" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="K39" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="M39" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="N39" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C40" t="n">
-        <v>3.3820252E7</v>
+        <v>6.8100825E7</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L40" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="M40" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="N40" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C41" t="n">
-        <v>9.6582296E7</v>
+        <v>3.1852464E7</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>150</v>
+      </c>
+      <c r="I41" t="s">
+        <v>103</v>
+      </c>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" t="s">
         <v>25</v>
       </c>
-      <c r="H41" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" t="s">
-        <v>84</v>
-      </c>
-      <c r="J41" t="s">
-        <v>113</v>
-      </c>
-      <c r="K41" t="s">
-        <v>149</v>
-      </c>
-      <c r="L41" t="s">
-        <v>148</v>
-      </c>
-      <c r="M41" t="s">
-        <v>26</v>
-      </c>
       <c r="N41" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C42" t="n">
-        <v>9.9390645E7</v>
+        <v>5.5696774E7</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" t="s">
         <v>62</v>
       </c>
-      <c r="I42" t="s">
-        <v>34</v>
-      </c>
       <c r="J42" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="K42" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="L42" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N42" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C43" t="n">
-        <v>5.9199589E7</v>
+        <v>1.3428117E7</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s">
         <v>61</v>
       </c>
-      <c r="I43" t="s">
-        <v>34</v>
-      </c>
-      <c r="J43" t="s">
-        <v>18</v>
-      </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="L43" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M43" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="N43" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="C44" t="n">
-        <v>8.9975224E7</v>
+        <v>5.2067525E7</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="J44" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="L44" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M44" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="N44" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C45" t="n">
-        <v>5.7167373E7</v>
+        <v>8.1234056E7</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H45" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="L45" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="M45" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="N45" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="C46" t="n">
-        <v>4.9051652E7</v>
+        <v>4.4452985E7</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" t="s">
+        <v>79</v>
+      </c>
+      <c r="L46" t="s">
         <v>110</v>
       </c>
-      <c r="I46" t="s">
-        <v>57</v>
-      </c>
-      <c r="J46" t="s">
-        <v>58</v>
-      </c>
-      <c r="K46" t="s">
-        <v>99</v>
-      </c>
-      <c r="L46" t="s">
-        <v>55</v>
-      </c>
       <c r="M46" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="N46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C47" t="n">
-        <v>2.8839634E7</v>
+        <v>8.6828748E7</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" t="s">
+        <v>138</v>
+      </c>
+      <c r="J47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
         <v>18</v>
       </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="M47" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" t="s">
         <v>84</v>
-      </c>
-      <c r="I47" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" t="s">
-        <v>149</v>
-      </c>
-      <c r="K47" t="s">
-        <v>78</v>
-      </c>
-      <c r="L47" t="s">
-        <v>70</v>
-      </c>
-      <c r="M47" t="s">
-        <v>155</v>
-      </c>
-      <c r="N47" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C48" t="n">
-        <v>4.8535432E7</v>
+        <v>6.334826E7</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="E48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
         <v>20</v>
       </c>
-      <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" t="s">
-        <v>102</v>
-      </c>
       <c r="J48" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="K48" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="N48" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C49" t="n">
-        <v>2.5512425E7</v>
+        <v>1.7880562E7</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" t="s">
+        <v>143</v>
+      </c>
+      <c r="I49" t="s">
+        <v>84</v>
+      </c>
+      <c r="J49" t="s">
+        <v>70</v>
+      </c>
+      <c r="K49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" t="s">
         <v>83</v>
-      </c>
-      <c r="H49" t="s">
-        <v>69</v>
-      </c>
-      <c r="I49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" t="s">
-        <v>62</v>
-      </c>
-      <c r="L49" t="s">
-        <v>17</v>
-      </c>
-      <c r="M49" t="s">
-        <v>120</v>
-      </c>
-      <c r="N49" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="C50" t="n">
-        <v>1.1918299E7</v>
+        <v>8.3149078E7</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="I50" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="K50" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="L50" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="M50" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N50" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C51" t="n">
-        <v>2.7046002E7</v>
+        <v>7.6750832E7</v>
       </c>
       <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s">
+        <v>112</v>
+      </c>
+      <c r="I51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J51" t="s">
+        <v>63</v>
+      </c>
+      <c r="K51" t="s">
+        <v>78</v>
+      </c>
+      <c r="L51" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N51" t="s">
         <v>39</v>
-      </c>
-      <c r="E51" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G51" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" t="s">
-        <v>51</v>
-      </c>
-      <c r="I51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51" t="s">
-        <v>53</v>
-      </c>
-      <c r="K51" t="s">
-        <v>33</v>
-      </c>
-      <c r="L51" t="s">
-        <v>56</v>
-      </c>
-      <c r="M51" t="s">
-        <v>43</v>
-      </c>
-      <c r="N51" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C52" t="n">
-        <v>1.2544848E7</v>
+        <v>7.2728497E7</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="J52" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="K52" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M52" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="N52" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="C53" t="n">
-        <v>3.5783373E7</v>
+        <v>5.4761126E7</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I53" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s">
+        <v>34</v>
+      </c>
+      <c r="K53" t="s">
         <v>74</v>
       </c>
-      <c r="J53" t="s">
-        <v>25</v>
-      </c>
-      <c r="K53" t="s">
-        <v>73</v>
-      </c>
       <c r="L53" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M53" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N53" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="C54" t="n">
-        <v>7.939618E7</v>
+        <v>1.8736507E7</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="H54" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="I54" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="J54" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K54" t="s">
         <v>45</v>
       </c>
       <c r="L54" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="M54" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="N54" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C55" t="n">
-        <v>1.9545816E7</v>
+        <v>1.4592185E7</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J55" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="K55" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="L55" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="M55" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="N55" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="C56" t="n">
-        <v>5.4663984E7</v>
+        <v>3.6969794E7</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J56" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="K56" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="L56" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M56" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N56" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C57" t="n">
-        <v>6.4363813E7</v>
+        <v>7.8776516E7</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I57" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="J57" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="K57" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L57" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="M57" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="N57" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B58" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C58" t="n">
-        <v>8.7884616E7</v>
+        <v>2.9911743E7</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F58" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" t="s">
+        <v>48</v>
+      </c>
+      <c r="H58" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" t="s">
+        <v>139</v>
+      </c>
+      <c r="J58" t="s">
+        <v>71</v>
+      </c>
+      <c r="K58" t="s">
         <v>52</v>
       </c>
-      <c r="G58" t="s">
-        <v>87</v>
-      </c>
-      <c r="H58" t="s">
-        <v>134</v>
-      </c>
-      <c r="I58" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" t="s">
-        <v>44</v>
-      </c>
-      <c r="K58" t="s">
-        <v>99</v>
-      </c>
       <c r="L58" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="M58" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="N58" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C59" t="n">
-        <v>9.8579354E7</v>
+        <v>3.2224913E7</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K59" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="M59" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="N59" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C60" t="n">
-        <v>2.3946902E7</v>
+        <v>8.6208729E7</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F60" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="I60" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="K60" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="L60" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M60" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="N60" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C61" t="n">
-        <v>4.188762E7</v>
+        <v>9.6809274E7</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="L61" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="M61" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="N61" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/StudentPreference60.xlsx
+++ b/StudentPreference60.xlsx
@@ -56,586 +56,586 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Kitty</t>
-  </si>
-  <si>
-    <t>Hart</t>
+    <t>Sheldon</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>plotting election strategies</t>
+  </si>
+  <si>
+    <t>proving math theorems</t>
+  </si>
+  <si>
+    <t>directing animated films</t>
+  </si>
+  <si>
+    <t>running a communist country</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>making insipid musicals</t>
+  </si>
+  <si>
+    <t>Alistair</t>
+  </si>
+  <si>
+    <t>Cooke</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>treating the sick with jokes</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>mass-producing cars</t>
+  </si>
+  <si>
+    <t>cheating clients</t>
+  </si>
+  <si>
+    <t>managing hedge funds</t>
+  </si>
+  <si>
+    <t>Cab</t>
+  </si>
+  <si>
+    <t>Calloway</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
+    <t>slashing victims</t>
+  </si>
+  <si>
+    <t>terrorizing employees</t>
+  </si>
+  <si>
+    <t>coining sententious maxims</t>
+  </si>
+  <si>
+    <t>fighting the forces of good</t>
+  </si>
+  <si>
+    <t>tossing coins</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>rescuing hostages</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>falling gracefully</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>plagiarizing political speeches</t>
+  </si>
+  <si>
+    <t>surviving large-scale floods</t>
+  </si>
+  <si>
+    <t>surviving fatwas</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>over-acting</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>Pierce</t>
+  </si>
+  <si>
+    <t>Brosnan</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>disposing of unwanted jewelry</t>
+  </si>
+  <si>
+    <t>currying favour</t>
+  </si>
+  <si>
+    <t>chasing flappers</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>Upton</t>
+  </si>
+  <si>
+    <t>Sinclair</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>Jean-Claude</t>
+  </si>
+  <si>
+    <t>Killy</t>
+  </si>
+  <si>
+    <t>running gentleman's clubs</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>reporting the news</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>Conan</t>
+  </si>
+  <si>
+    <t>Obrien</t>
+  </si>
+  <si>
+    <t>plotting with the enemy</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>Crosby</t>
+  </si>
+  <si>
+    <t>spying for the enemy</t>
+  </si>
+  <si>
+    <t>Maxfield</t>
+  </si>
+  <si>
+    <t>Parrish</t>
+  </si>
+  <si>
+    <t>letting one's hair down</t>
+  </si>
+  <si>
+    <t>wearing tights</t>
+  </si>
+  <si>
+    <t>Jean-Luc</t>
+  </si>
+  <si>
+    <t>Godard</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>directing science fiction movies</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Bolger</t>
+  </si>
+  <si>
+    <t>racing fast cars</t>
+  </si>
+  <si>
+    <t>Slim</t>
+  </si>
+  <si>
+    <t>Pickens</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Brewer</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Louis-Dreyfus</t>
+  </si>
+  <si>
+    <t>breaking records</t>
+  </si>
+  <si>
+    <t>giving investment advice</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Merriman</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Cuban</t>
+  </si>
+  <si>
+    <t>kicking ass</t>
+  </si>
+  <si>
+    <t>inventing time machines</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Robison</t>
+  </si>
+  <si>
+    <t>making trains run on time</t>
+  </si>
+  <si>
+    <t>Cliff</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>singing protest songs</t>
+  </si>
+  <si>
+    <t>winning Oscars</t>
+  </si>
+  <si>
+    <t>Helen</t>
+  </si>
+  <si>
+    <t>OConnell</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
+    <t>Gould</t>
+  </si>
+  <si>
     <t>climbing social ladders</t>
   </si>
   <si>
-    <t>playing pranks</t>
-  </si>
-  <si>
-    <t>chasing jellyfish</t>
-  </si>
-  <si>
-    <t>retiring replicants</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>defending the Earth</t>
-  </si>
-  <si>
-    <t>cooking for friends</t>
-  </si>
-  <si>
-    <t>squabbling on television</t>
-  </si>
-  <si>
-    <t>drinking one's life away</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>Strom</t>
-  </si>
-  <si>
-    <t>Thurmond</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>playing classical piano</t>
-  </si>
-  <si>
-    <t>keeping a diary</t>
-  </si>
-  <si>
-    <t>ranting about politics</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>making suspense movies</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>competing in the Olympics</t>
-  </si>
-  <si>
-    <t>licking frogs</t>
-  </si>
-  <si>
-    <t>singing parody songs</t>
-  </si>
-  <si>
-    <t>conducting illicit affairs</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Zappa</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>chasing old women</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
+    <t>Cecil</t>
+  </si>
+  <si>
+    <t>DeMille</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Lockhart</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Furlong</t>
+  </si>
+  <si>
+    <t>Key</t>
   </si>
   <si>
     <t>promoting conservative values</t>
   </si>
   <si>
-    <t>causing political scandals</t>
-  </si>
-  <si>
-    <t>H.P.</t>
-  </si>
-  <si>
-    <t>Lovecraft</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>tracking down criminals</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Slater</t>
-  </si>
-  <si>
-    <t>writing modern poetry</t>
-  </si>
-  <si>
-    <t>writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>robbing banks</t>
-  </si>
-  <si>
-    <t>suppressing minorities</t>
-  </si>
-  <si>
-    <t>waxing a surfboard</t>
-  </si>
-  <si>
-    <t>Boris</t>
-  </si>
-  <si>
-    <t>Yeltsin</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>killing people in ingenious ways</t>
-  </si>
-  <si>
-    <t>duelling acrobatically</t>
-  </si>
-  <si>
-    <t>fighting the forces of good</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>singing goofy songs</t>
-  </si>
-  <si>
-    <t>Ellen</t>
-  </si>
-  <si>
-    <t>Burstyn</t>
-  </si>
-  <si>
-    <t>playing the saxophone</t>
-  </si>
-  <si>
-    <t>escaping from water tanks</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>hunting raccoons</t>
+    <t>Leona</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Cal</t>
+  </si>
+  <si>
+    <t>Ripken</t>
+  </si>
+  <si>
+    <t>exploring the new world</t>
+  </si>
+  <si>
+    <t>playing grungy music</t>
+  </si>
+  <si>
+    <t>scandalizing polite society</t>
+  </si>
+  <si>
+    <t>Cleo</t>
+  </si>
+  <si>
+    <t>Laine</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Coppola</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Gwyneth</t>
+  </si>
+  <si>
+    <t>Paltrow</t>
+  </si>
+  <si>
+    <t>giving self-help lectures</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Browning</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Dow</t>
+  </si>
+  <si>
+    <t>Donnie</t>
+  </si>
+  <si>
+    <t>Wahlberg</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Shaffer</t>
+  </si>
+  <si>
+    <t>Rod</t>
+  </si>
+  <si>
+    <t>Serling</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>Estelle</t>
+  </si>
+  <si>
+    <t>Getty</t>
   </si>
   <si>
     <t>writing plays</t>
   </si>
   <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>watching TV</t>
-  </si>
-  <si>
-    <t>Bear</t>
-  </si>
-  <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t>ranting about minorities</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>Doc</t>
-  </si>
-  <si>
-    <t>Severinsen</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>running a hardware company</t>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Cody</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>McKellen</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Luciano</t>
   </si>
   <si>
     <t>Jim</t>
   </si>
   <si>
-    <t>Henson</t>
-  </si>
-  <si>
-    <t>making dumb comedies</t>
-  </si>
-  <si>
-    <t>manipulating ingenues</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>Jackie</t>
-  </si>
-  <si>
-    <t>Kersee</t>
-  </si>
-  <si>
-    <t>campaigning for world peace</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>DeGarmo</t>
-  </si>
-  <si>
-    <t>Swain</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>rooting out moles</t>
-  </si>
-  <si>
-    <t>Gordon</t>
-  </si>
-  <si>
-    <t>Lightfoot</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Little</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>directing comedies</t>
-  </si>
-  <si>
-    <t>explaining natural selection</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Wallace</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>Adolf</t>
-  </si>
-  <si>
-    <t>Hitler</t>
-  </si>
-  <si>
-    <t>promoting new technologies</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Jermaine</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Catherine</t>
-  </si>
-  <si>
-    <t>Great</t>
-  </si>
-  <si>
-    <t>Santa</t>
-  </si>
-  <si>
-    <t>promoting enlightenment</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Flatley</t>
-  </si>
-  <si>
-    <t>singing opera arias</t>
-  </si>
-  <si>
-    <t>Candace</t>
-  </si>
-  <si>
-    <t>Bergen</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>Noth</t>
-  </si>
-  <si>
-    <t>Gordie</t>
-  </si>
-  <si>
-    <t>Howe</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Marciano</t>
-  </si>
-  <si>
-    <t>being a good neighbor</t>
-  </si>
-  <si>
-    <t>promoting diversity</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Denver</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>Lerner</t>
-  </si>
-  <si>
-    <t>Burt</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Bobby</t>
-  </si>
-  <si>
-    <t>Flay</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Garner</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>Bernhard</t>
-  </si>
-  <si>
-    <t>Lord</t>
-  </si>
-  <si>
-    <t>Baden-Powell</t>
-  </si>
-  <si>
-    <t>Leakey</t>
-  </si>
-  <si>
-    <t>playing drums</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>Lindsey</t>
-  </si>
-  <si>
-    <t>Buckingham</t>
-  </si>
-  <si>
-    <t>Vladimir</t>
-  </si>
-  <si>
-    <t>Putin</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Ludden</t>
-  </si>
-  <si>
-    <t>Spiro</t>
-  </si>
-  <si>
-    <t>Agnew</t>
-  </si>
-  <si>
-    <t>Yves</t>
-  </si>
-  <si>
-    <t>Laurent</t>
-  </si>
-  <si>
-    <t>Crichton</t>
-  </si>
-  <si>
-    <t>Jill</t>
-  </si>
-  <si>
-    <t>Clayburgh</t>
-  </si>
-  <si>
-    <t>Alda</t>
-  </si>
-  <si>
-    <t>Fabian</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Billy</t>
-  </si>
-  <si>
-    <t>Mitchell</t>
-  </si>
-  <si>
-    <t>Abbie</t>
-  </si>
-  <si>
-    <t>Hoffman</t>
-  </si>
-  <si>
-    <t>Betty</t>
-  </si>
-  <si>
-    <t>Hutton</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Robison</t>
-  </si>
-  <si>
-    <t>Gale</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Roberts</t>
-  </si>
-  <si>
-    <t>Dino</t>
-  </si>
-  <si>
-    <t>Laurentiis</t>
-  </si>
-  <si>
-    <t>Shelley</t>
-  </si>
-  <si>
-    <t>Duvall</t>
-  </si>
-  <si>
-    <t>Captain</t>
-  </si>
-  <si>
-    <t>Kangaroo</t>
-  </si>
-  <si>
-    <t>Attenborough</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Priestley</t>
-  </si>
-  <si>
-    <t>Martina</t>
-  </si>
-  <si>
-    <t>McBride</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Seaver</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Spacey</t>
-  </si>
-  <si>
-    <t>Ted</t>
-  </si>
-  <si>
-    <t>Turner</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>Murray</t>
+    <t>Morrison</t>
+  </si>
+  <si>
+    <t>Bernstein</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>Symon�</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Daltrey</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Pasteur</t>
+  </si>
+  <si>
+    <t>Dionne</t>
+  </si>
+  <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>Frankie</t>
+  </si>
+  <si>
+    <t>Manning</t>
+  </si>
+  <si>
+    <t>Edd</t>
+  </si>
+  <si>
+    <t>Byrnes</t>
+  </si>
+  <si>
+    <t>Arsenio</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Buddy</t>
+  </si>
+  <si>
+    <t>Ebsen</t>
+  </si>
+  <si>
+    <t>amassing nuclear weapons</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Hardy</t>
+  </si>
+  <si>
+    <t>Wilbur</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>Spike</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Barton</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization</t>
   </si>
 </sst>
 </file>
@@ -697,16 +697,16 @@
     <col min="2" max="2" width="13.00390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.1015625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.11328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.421875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="26.52734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="26.52734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="26.52734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="26.421875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="26.421875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="26.52734375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="26.421875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="26.421875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="26.52734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="27.94921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="32.33203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="27.94921875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="32.33203125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="27.94921875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="32.234375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="25.40625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>5.8515324E7</v>
+        <v>9.2820238E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -805,2416 +805,2416 @@
         <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>9.833955E7</v>
+        <v>1.5540325E7</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.4379271E7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.0853181E7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>46</v>
       </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>47</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="n">
+        <v>3.5739181E7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.2467329E7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>5.1450395E7</v>
+        <v>1.6769906E7</v>
       </c>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.1215072E7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" t="s">
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" t="n">
-        <v>6.4777815E7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
         <v>66</v>
       </c>
-      <c r="H7" t="s">
+      <c r="N7" t="s">
         <v>67</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C8" t="n">
-        <v>8.7940918E7</v>
+        <v>9.4698164E7</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C9" t="n">
-        <v>7.9528497E7</v>
+        <v>4.9240575E7</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C10" t="n">
-        <v>8.2563303E7</v>
+        <v>8.5242496E7</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
         <v>47</v>
       </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" t="s">
-        <v>89</v>
-      </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C11" t="n">
-        <v>8.5961746E7</v>
+        <v>1.3785414E7</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0256752E7</v>
+        <v>3.9019846E7</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C13" t="n">
-        <v>9.0409708E7</v>
+        <v>4.1618285E7</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="M13" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C14" t="n">
-        <v>3.1442766E7</v>
+        <v>5.1050013E7</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>9.7395421E7</v>
+        <v>6.7321115E7</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L15" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="M15" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C16" t="n">
-        <v>6.1066934E7</v>
+        <v>1.0439559E7</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
         <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C17" t="n">
-        <v>6.4064966E7</v>
+        <v>6.0452867E7</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" t="s">
         <v>63</v>
       </c>
-      <c r="K17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" t="s">
-        <v>78</v>
-      </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C18" t="n">
-        <v>7.0825632E7</v>
+        <v>6.5587954E7</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="M18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N18" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C19" t="n">
-        <v>9.8879224E7</v>
+        <v>1.681193E7</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
         <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="N19" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C20" t="n">
-        <v>5.7542732E7</v>
+        <v>3.3457508E7</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="M20" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="N20" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C21" t="n">
-        <v>4.4162565E7</v>
+        <v>4.4219832E7</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
         <v>77</v>
       </c>
-      <c r="G21" t="s">
-        <v>118</v>
-      </c>
       <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" t="s">
         <v>97</v>
       </c>
-      <c r="I21" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" t="s">
-        <v>111</v>
-      </c>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="N21" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C22" t="n">
-        <v>3.1381497E7</v>
+        <v>5.6845948E7</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="M22" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="N22" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C23" t="n">
-        <v>5.7237959E7</v>
+        <v>2.5944724E7</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="H23" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K23" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="M23" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="N23" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C24" t="n">
-        <v>8.4398889E7</v>
+        <v>2.3729993E7</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="J24" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="L24" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="N24" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C25" t="n">
-        <v>4.5620119E7</v>
+        <v>4.6238055E7</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M25" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="N25" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C26" t="n">
-        <v>4.7905386E7</v>
+        <v>5.8807593E7</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" t="s">
         <v>48</v>
       </c>
-      <c r="G26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" t="s">
-        <v>139</v>
-      </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="N26" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C27" t="n">
-        <v>2.380451E7</v>
+        <v>7.7440693E7</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="N27" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C28" t="n">
-        <v>6.7799735E7</v>
+        <v>2.4101062E7</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M28" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="N28" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C29" t="n">
-        <v>4.3714086E7</v>
+        <v>6.8665404E7</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
         <v>63</v>
       </c>
-      <c r="G29" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" t="s">
-        <v>34</v>
-      </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M29" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="N29" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C30" t="n">
-        <v>3.154026E7</v>
+        <v>1.2971624E7</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
         <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="K30" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="L30" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="M30" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="N30" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C31" t="n">
-        <v>8.7511154E7</v>
+        <v>8.8619641E7</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="L31" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="M31" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C32" t="n">
-        <v>1.027465E7</v>
+        <v>4.5127556E7</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L32" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M32" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N32" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C33" t="n">
-        <v>5.362457E7</v>
+        <v>8.7778945E7</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" t="s">
         <v>115</v>
       </c>
-      <c r="G33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" t="s">
-        <v>111</v>
-      </c>
-      <c r="I33" t="s">
-        <v>37</v>
-      </c>
-      <c r="J33" t="s">
-        <v>61</v>
-      </c>
-      <c r="K33" t="s">
-        <v>78</v>
-      </c>
       <c r="L33" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="M33" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="N33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C34" t="n">
-        <v>6.2718071E7</v>
+        <v>7.1803645E7</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
         <v>44</v>
       </c>
-      <c r="G34" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" t="s">
-        <v>31</v>
-      </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="K34" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L34" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="M34" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="N34" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C35" t="n">
-        <v>8.0147083E7</v>
+        <v>6.4916069E7</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="I35" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J35" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K35" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="L35" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="M35" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="N35" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C36" t="n">
-        <v>6.0059973E7</v>
+        <v>7.2537325E7</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="H36" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="I36" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
         <v>32</v>
       </c>
-      <c r="M36" t="s">
-        <v>62</v>
-      </c>
       <c r="N36" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C37" t="n">
-        <v>6.046331E7</v>
+        <v>3.2488106E7</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="K37" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="L37" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="M37" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="N37" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C38" t="n">
-        <v>8.5086535E7</v>
+        <v>4.2773451E7</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="J38" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K38" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="L38" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="M38" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N38" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C39" t="n">
-        <v>3.7011937E7</v>
+        <v>8.8688512E7</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="L39" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="M39" t="s">
         <v>115</v>
       </c>
       <c r="N39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C40" t="n">
-        <v>6.8100825E7</v>
+        <v>4.1741366E7</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
         <v>63</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" t="s">
         <v>47</v>
       </c>
-      <c r="I40" t="s">
-        <v>87</v>
-      </c>
-      <c r="J40" t="s">
-        <v>110</v>
-      </c>
       <c r="K40" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L40" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="M40" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N40" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C41" t="n">
-        <v>3.1852464E7</v>
+        <v>8.380152E7</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="I41" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="J41" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="L41" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="M41" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="N41" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C42" t="n">
-        <v>5.5696774E7</v>
+        <v>4.8571563E7</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+      <c r="J42" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L42" t="s">
+        <v>70</v>
+      </c>
+      <c r="M42" t="s">
         <v>45</v>
       </c>
-      <c r="F42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" t="s">
-        <v>110</v>
-      </c>
-      <c r="H42" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" t="s">
-        <v>62</v>
-      </c>
-      <c r="J42" t="s">
-        <v>118</v>
-      </c>
-      <c r="K42" t="s">
-        <v>93</v>
-      </c>
-      <c r="L42" t="s">
-        <v>39</v>
-      </c>
-      <c r="M42" t="s">
-        <v>92</v>
-      </c>
       <c r="N42" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C43" t="n">
-        <v>1.3428117E7</v>
+        <v>8.7885677E7</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I43" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K43" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="M43" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="N43" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="C44" t="n">
-        <v>5.2067525E7</v>
+        <v>5.1961417E7</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I44" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="K44" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="L44" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="M44" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="N44" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C45" t="n">
-        <v>8.1234056E7</v>
+        <v>9.7047184E7</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I45" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="J45" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="L45" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="M45" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="N45" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C46" t="n">
-        <v>4.4452985E7</v>
+        <v>1.3763082E7</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" t="s">
+        <v>119</v>
+      </c>
+      <c r="K46" t="s">
         <v>98</v>
       </c>
-      <c r="G46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" t="s">
-        <v>60</v>
-      </c>
-      <c r="J46" t="s">
-        <v>59</v>
-      </c>
-      <c r="K46" t="s">
-        <v>79</v>
-      </c>
       <c r="L46" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="M46" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="N46" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C47" t="n">
-        <v>8.6828748E7</v>
+        <v>2.2479887E7</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" t="s">
         <v>22</v>
-      </c>
-      <c r="K47" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" t="s">
-        <v>19</v>
-      </c>
-      <c r="N47" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B48" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C48" t="n">
-        <v>6.334826E7</v>
+        <v>9.1345195E7</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N48" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C49" t="n">
-        <v>1.7880562E7</v>
+        <v>1.526132E7</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s">
         <v>84</v>
       </c>
       <c r="J49" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M49" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="N49" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C50" t="n">
-        <v>8.3149078E7</v>
+        <v>9.1858717E7</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s">
+        <v>55</v>
+      </c>
+      <c r="K50" t="s">
         <v>98</v>
       </c>
-      <c r="G50" t="s">
-        <v>94</v>
-      </c>
-      <c r="H50" t="s">
-        <v>33</v>
-      </c>
-      <c r="I50" t="s">
-        <v>43</v>
-      </c>
-      <c r="J50" t="s">
-        <v>31</v>
-      </c>
-      <c r="K50" t="s">
-        <v>48</v>
-      </c>
       <c r="L50" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="M50" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C51" t="n">
-        <v>7.6750832E7</v>
+        <v>1.7809515E7</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" t="s">
+        <v>119</v>
+      </c>
+      <c r="L51" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" t="s">
         <v>77</v>
-      </c>
-      <c r="H51" t="s">
-        <v>112</v>
-      </c>
-      <c r="I51" t="s">
-        <v>87</v>
-      </c>
-      <c r="J51" t="s">
-        <v>63</v>
-      </c>
-      <c r="K51" t="s">
-        <v>78</v>
-      </c>
-      <c r="L51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N51" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C52" t="n">
-        <v>7.2728497E7</v>
+        <v>9.107777E7</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F52" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52" t="s">
+        <v>64</v>
+      </c>
+      <c r="J52" t="s">
+        <v>115</v>
+      </c>
+      <c r="K52" t="s">
         <v>45</v>
       </c>
-      <c r="I52" t="s">
-        <v>131</v>
-      </c>
-      <c r="J52" t="s">
-        <v>98</v>
-      </c>
-      <c r="K52" t="s">
-        <v>47</v>
-      </c>
       <c r="L52" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="M52" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N52" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C53" t="n">
-        <v>5.4761126E7</v>
+        <v>8.1828874E7</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
+        <v>142</v>
+      </c>
+      <c r="K53" t="s">
+        <v>56</v>
+      </c>
+      <c r="L53" t="s">
         <v>34</v>
       </c>
-      <c r="K53" t="s">
-        <v>74</v>
-      </c>
-      <c r="L53" t="s">
-        <v>33</v>
-      </c>
       <c r="M53" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N53" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="C54" t="n">
-        <v>1.8736507E7</v>
+        <v>9.3391485E7</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" t="s">
+        <v>59</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s">
         <v>75</v>
       </c>
-      <c r="F54" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" t="s">
-        <v>111</v>
-      </c>
-      <c r="H54" t="s">
-        <v>106</v>
-      </c>
-      <c r="I54" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" t="s">
-        <v>63</v>
-      </c>
       <c r="K54" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="L54" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="M54" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="N54" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C55" t="n">
-        <v>1.4592185E7</v>
+        <v>5.8347797E7</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I55" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L55" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="M55" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="N55" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="C56" t="n">
-        <v>3.6969794E7</v>
+        <v>1.3919419E7</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="I56" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="J56" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K56" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="L56" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M56" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N56" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
         <v>198</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="n">
+        <v>3.0894754E7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
         <v>199</v>
       </c>
-      <c r="C57" t="n">
-        <v>7.8776516E7</v>
-      </c>
-      <c r="D57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s">
-        <v>84</v>
-      </c>
-      <c r="H57" t="s">
-        <v>52</v>
-      </c>
       <c r="I57" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="J57" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57" t="s">
         <v>54</v>
       </c>
-      <c r="K57" t="s">
-        <v>19</v>
-      </c>
       <c r="L57" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="M57" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="N57" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58">
@@ -3225,40 +3225,40 @@
         <v>201</v>
       </c>
       <c r="C58" t="n">
-        <v>2.9911743E7</v>
+        <v>7.1915455E7</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I58" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="J58" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L58" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="M58" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="N58" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59">
@@ -3269,40 +3269,40 @@
         <v>203</v>
       </c>
       <c r="C59" t="n">
-        <v>3.2224913E7</v>
+        <v>9.8316071E7</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J59" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L59" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="M59" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="N59" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60">
@@ -3310,40 +3310,40 @@
         <v>204</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="C60" t="n">
-        <v>8.6208729E7</v>
+        <v>4.1199881E7</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
         <v>63</v>
       </c>
-      <c r="F60" t="s">
-        <v>110</v>
-      </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H60" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="I60" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="J60" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="L60" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="M60" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="N60" t="s">
         <v>47</v>
@@ -3351,46 +3351,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" t="s">
         <v>206</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="n">
+        <v>2.3867538E7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>114</v>
+      </c>
+      <c r="G61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61" t="s">
+        <v>63</v>
+      </c>
+      <c r="I61" t="s">
+        <v>71</v>
+      </c>
+      <c r="J61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K61" t="s">
+        <v>40</v>
+      </c>
+      <c r="L61" t="s">
+        <v>47</v>
+      </c>
+      <c r="M61" t="s">
         <v>207</v>
       </c>
-      <c r="C61" t="n">
-        <v>9.6809274E7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" t="s">
-        <v>43</v>
-      </c>
-      <c r="G61" t="s">
-        <v>87</v>
-      </c>
-      <c r="H61" t="s">
-        <v>115</v>
-      </c>
-      <c r="I61" t="s">
-        <v>78</v>
-      </c>
-      <c r="J61" t="s">
-        <v>34</v>
-      </c>
-      <c r="K61" t="s">
-        <v>62</v>
-      </c>
-      <c r="L61" t="s">
-        <v>88</v>
-      </c>
-      <c r="M61" t="s">
-        <v>77</v>
-      </c>
       <c r="N61" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/StudentPreference60.xlsx
+++ b/StudentPreference60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="207">
   <si>
     <t>First Name</t>
   </si>
@@ -56,586 +56,583 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Sheldon</t>
-  </si>
-  <si>
-    <t>Leonard</t>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Ratzenberger</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>picking pockets</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>promoting greed</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>studying dinosaurs</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Seward</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>starring in romantic comedies</t>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>plotting terrorist outrages</t>
+  </si>
+  <si>
+    <t>avoiding taxes</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>running races</t>
+  </si>
+  <si>
+    <t>popping amphetamines</t>
+  </si>
+  <si>
+    <t>organizing mass suicides</t>
+  </si>
+  <si>
+    <t>obsessively washing hands</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Wild</t>
+  </si>
+  <si>
+    <t>Hickok</t>
+  </si>
+  <si>
+    <t>selling self-help books</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>recruiting disaffected youths</t>
+  </si>
+  <si>
+    <t>managing hedge funds</t>
+  </si>
+  <si>
+    <t>attacking neighbors</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Gable</t>
+  </si>
+  <si>
+    <t>inventing new technologies</t>
+  </si>
+  <si>
+    <t>tilting at windmills</t>
+  </si>
+  <si>
+    <t>spying on girls</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>offering blessings</t>
+  </si>
+  <si>
+    <t>Freddie</t>
+  </si>
+  <si>
+    <t>Blassie</t>
+  </si>
+  <si>
+    <t>writing short stories</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>talking up the economy</t>
+  </si>
+  <si>
+    <t>raising new-age children</t>
+  </si>
+  <si>
+    <t>performing serious acting</t>
+  </si>
+  <si>
+    <t>Yanni</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>singing experimental songs</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>flaunting buttocks</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
+    <t>Frankie</t>
+  </si>
+  <si>
+    <t>Manning</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>pretending to fight</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>investing money</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
+  </si>
+  <si>
+    <t>Phylicia</t>
+  </si>
+  <si>
+    <t>Rashad</t>
+  </si>
+  <si>
+    <t>playing grungy music</t>
+  </si>
+  <si>
+    <t>Nikki</t>
+  </si>
+  <si>
+    <t>Melton</t>
+  </si>
+  <si>
+    <t>changing privacy settings</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>Keri</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>breaking records</t>
+  </si>
+  <si>
+    <t>Calvin</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>Stockman</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Cohan</t>
+  </si>
+  <si>
+    <t>Brendan</t>
+  </si>
+  <si>
+    <t>Shanahan</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Nell</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>tending the garden</t>
+  </si>
+  <si>
+    <t>Emmylou</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>fighting guerilla wars</t>
+  </si>
+  <si>
+    <t>saving money</t>
+  </si>
+  <si>
+    <t>chasing a great white whale</t>
+  </si>
+  <si>
+    <t>Willard</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Schulz</t>
+  </si>
+  <si>
+    <t>healing the sick</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>seducing kings</t>
+  </si>
+  <si>
+    <t>Little</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
   </si>
   <si>
     <t>composing classical music</t>
   </si>
   <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
-  </si>
-  <si>
-    <t>directing animated films</t>
-  </si>
-  <si>
-    <t>running a communist country</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>making insipid musicals</t>
-  </si>
-  <si>
-    <t>Alistair</t>
-  </si>
-  <si>
-    <t>Cooke</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>playing the piano</t>
-  </si>
-  <si>
-    <t>treating the sick with jokes</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>mass-producing cars</t>
-  </si>
-  <si>
-    <t>cheating clients</t>
-  </si>
-  <si>
-    <t>managing hedge funds</t>
-  </si>
-  <si>
-    <t>Cab</t>
-  </si>
-  <si>
-    <t>Calloway</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>slashing victims</t>
-  </si>
-  <si>
-    <t>terrorizing employees</t>
-  </si>
-  <si>
-    <t>coining sententious maxims</t>
-  </si>
-  <si>
-    <t>fighting the forces of good</t>
-  </si>
-  <si>
-    <t>tossing coins</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>rescuing hostages</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>falling gracefully</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>plagiarizing political speeches</t>
-  </si>
-  <si>
-    <t>surviving large-scale floods</t>
-  </si>
-  <si>
-    <t>surviving fatwas</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>over-acting</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>Pierce</t>
-  </si>
-  <si>
-    <t>Brosnan</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>disposing of unwanted jewelry</t>
-  </si>
-  <si>
-    <t>currying favour</t>
-  </si>
-  <si>
-    <t>chasing flappers</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>Upton</t>
-  </si>
-  <si>
-    <t>Sinclair</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>Jean-Claude</t>
-  </si>
-  <si>
-    <t>Killy</t>
-  </si>
-  <si>
-    <t>running gentleman's clubs</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>making vulgar jokes</t>
-  </si>
-  <si>
-    <t>Conan</t>
-  </si>
-  <si>
-    <t>Obrien</t>
-  </si>
-  <si>
-    <t>plotting with the enemy</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Evans</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>throwing fund-raisers for Parkinson's disease</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>Sidney</t>
-  </si>
-  <si>
-    <t>Crosby</t>
-  </si>
-  <si>
-    <t>spying for the enemy</t>
-  </si>
-  <si>
-    <t>Maxfield</t>
-  </si>
-  <si>
-    <t>Parrish</t>
-  </si>
-  <si>
-    <t>letting one's hair down</t>
-  </si>
-  <si>
-    <t>wearing tights</t>
-  </si>
-  <si>
-    <t>Jean-Luc</t>
-  </si>
-  <si>
-    <t>Godard</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>directing science fiction movies</t>
-  </si>
-  <si>
     <t>Ray</t>
   </si>
   <si>
-    <t>Bolger</t>
-  </si>
-  <si>
-    <t>racing fast cars</t>
-  </si>
-  <si>
-    <t>Slim</t>
-  </si>
-  <si>
-    <t>Pickens</t>
-  </si>
-  <si>
-    <t>Teresa</t>
-  </si>
-  <si>
-    <t>Brewer</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Louis-Dreyfus</t>
-  </si>
-  <si>
-    <t>breaking records</t>
-  </si>
-  <si>
-    <t>giving investment advice</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>Merriman</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Cuban</t>
-  </si>
-  <si>
-    <t>kicking ass</t>
-  </si>
-  <si>
-    <t>inventing time machines</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Robison</t>
-  </si>
-  <si>
-    <t>making trains run on time</t>
-  </si>
-  <si>
-    <t>Cliff</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>singing protest songs</t>
-  </si>
-  <si>
-    <t>winning Oscars</t>
-  </si>
-  <si>
-    <t>Helen</t>
-  </si>
-  <si>
-    <t>OConnell</t>
-  </si>
-  <si>
-    <t>Glenn</t>
-  </si>
-  <si>
-    <t>Gould</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Cecil</t>
-  </si>
-  <si>
-    <t>DeMille</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Lockhart</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>Furlong</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Leona</t>
-  </si>
-  <si>
-    <t>Lewis</t>
-  </si>
-  <si>
-    <t>Cal</t>
-  </si>
-  <si>
-    <t>Ripken</t>
-  </si>
-  <si>
-    <t>exploring the new world</t>
-  </si>
-  <si>
-    <t>playing grungy music</t>
-  </si>
-  <si>
-    <t>scandalizing polite society</t>
-  </si>
-  <si>
-    <t>Cleo</t>
-  </si>
-  <si>
-    <t>Laine</t>
-  </si>
-  <si>
-    <t>Francis</t>
-  </si>
-  <si>
-    <t>Coppola</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>Hudson</t>
-  </si>
-  <si>
-    <t>Kathleen</t>
+    <t>Romano</t>
+  </si>
+  <si>
+    <t>Cyrus</t>
+  </si>
+  <si>
+    <t>McCormick</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Cezanne</t>
+  </si>
+  <si>
+    <t>instilling fear in the enemy</t>
+  </si>
+  <si>
+    <t>making money</t>
+  </si>
+  <si>
+    <t>Wooden</t>
+  </si>
+  <si>
+    <t>dreaming the day away</t>
+  </si>
+  <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>hosting radio shows</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>Langton</t>
+  </si>
+  <si>
+    <t>Heloise</t>
+  </si>
+  <si>
+    <t>Cruse</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Gleason</t>
+  </si>
+  <si>
+    <t>Robe</t>
+  </si>
+  <si>
+    <t>Lowe</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>Paloma</t>
+  </si>
+  <si>
+    <t>Picasso</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>traveling in time</t>
+  </si>
+  <si>
+    <t>Neve</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
+    <t>Pleshette</t>
+  </si>
+  <si>
+    <t>inventing superheroes</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Nash</t>
+  </si>
+  <si>
+    <t>Shuggie</t>
+  </si>
+  <si>
+    <t>Otis</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t>Holliday</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Catton</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Pratt</t>
+  </si>
+  <si>
+    <t>Chiang</t>
+  </si>
+  <si>
+    <t>Shek</t>
+  </si>
+  <si>
+    <t>smoking Laramie Hi-Tars</t>
+  </si>
+  <si>
+    <t>Duane</t>
+  </si>
+  <si>
+    <t>Eddy</t>
+  </si>
+  <si>
+    <t>Macy</t>
+  </si>
+  <si>
+    <t>Sir</t>
+  </si>
+  <si>
+    <t>Ogden</t>
+  </si>
+  <si>
+    <t>Lyle</t>
+  </si>
+  <si>
+    <t>Lovett</t>
+  </si>
+  <si>
+    <t>Penny</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Tucker</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Fyodor</t>
+  </si>
+  <si>
+    <t>Dostoevsky</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>Mahatma</t>
+  </si>
+  <si>
+    <t>Gandhi</t>
+  </si>
+  <si>
+    <t>Kherington</t>
+  </si>
+  <si>
+    <t>Payne</t>
+  </si>
+  <si>
+    <t>Phil</t>
+  </si>
+  <si>
+    <t>Proctor</t>
+  </si>
+  <si>
+    <t>Indira</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Solanus</t>
   </si>
   <si>
     <t>Casey</t>
   </si>
   <si>
-    <t>Gwyneth</t>
-  </si>
-  <si>
-    <t>Paltrow</t>
-  </si>
-  <si>
-    <t>giving self-help lectures</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Browning</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Tony</t>
-  </si>
-  <si>
-    <t>Dow</t>
-  </si>
-  <si>
-    <t>Donnie</t>
-  </si>
-  <si>
-    <t>Wahlberg</t>
-  </si>
-  <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Shaffer</t>
-  </si>
-  <si>
-    <t>Rod</t>
-  </si>
-  <si>
-    <t>Serling</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>Estelle</t>
-  </si>
-  <si>
-    <t>Getty</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Cody</t>
-  </si>
-  <si>
-    <t>Ian</t>
-  </si>
-  <si>
-    <t>McKellen</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>Jim</t>
-  </si>
-  <si>
-    <t>Morrison</t>
-  </si>
-  <si>
-    <t>Bernstein</t>
-  </si>
-  <si>
-    <t>Raven</t>
-  </si>
-  <si>
-    <t>Symon�</t>
-  </si>
-  <si>
-    <t>Roger</t>
-  </si>
-  <si>
-    <t>Daltrey</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>Pasteur</t>
-  </si>
-  <si>
-    <t>Dionne</t>
-  </si>
-  <si>
-    <t>Warwick</t>
-  </si>
-  <si>
-    <t>Frankie</t>
-  </si>
-  <si>
-    <t>Manning</t>
-  </si>
-  <si>
-    <t>Edd</t>
-  </si>
-  <si>
-    <t>Byrnes</t>
-  </si>
-  <si>
-    <t>Arsenio</t>
-  </si>
-  <si>
-    <t>Hall</t>
-  </si>
-  <si>
-    <t>Buddy</t>
-  </si>
-  <si>
-    <t>Ebsen</t>
-  </si>
-  <si>
-    <t>amassing nuclear weapons</t>
-  </si>
-  <si>
-    <t>Jeff</t>
-  </si>
-  <si>
-    <t>Hardy</t>
-  </si>
-  <si>
-    <t>Wilbur</t>
-  </si>
-  <si>
-    <t>Wright</t>
-  </si>
-  <si>
-    <t>Spike</t>
-  </si>
-  <si>
-    <t>Clara</t>
-  </si>
-  <si>
-    <t>Barton</t>
-  </si>
-  <si>
-    <t>running a clandestine spy organization</t>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Buckley</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Basie</t>
   </si>
 </sst>
 </file>
@@ -697,16 +694,16 @@
     <col min="2" max="2" width="13.00390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.1015625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.11328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.94921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="32.33203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="37.46875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="27.94921875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="37.46875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="37.46875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="32.33203125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="27.94921875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="32.234375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="25.40625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="29.0703125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="25.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.80859375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="28.80859375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="32.234375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="29.0703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="29.0703125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="29.0703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="29.0703125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="28.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -761,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>9.2820238E7</v>
+        <v>3.2708851E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -805,2416 +802,2416 @@
         <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>1.5540325E7</v>
+        <v>2.7938848E7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.1496313E7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.4379271E7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
       </c>
       <c r="L4" t="s">
         <v>46</v>
       </c>
       <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
         <v>47</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
       <c r="C5" t="n">
-        <v>3.5739181E7</v>
+        <v>4.3848847E7</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" t="s">
         <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
-        <v>1.6769906E7</v>
+        <v>8.5588736E7</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C7" t="n">
-        <v>9.1215072E7</v>
+        <v>6.1753395E7</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.3692716E7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.4698164E7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" t="s">
-        <v>44</v>
-      </c>
       <c r="N8" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>4.9240575E7</v>
+        <v>6.9386626E7</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C10" t="n">
-        <v>8.5242496E7</v>
+        <v>8.1191796E7</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
         <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>1.3785414E7</v>
+        <v>2.4204626E7</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N11" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9019846E7</v>
+        <v>3.398109E7</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C13" t="n">
-        <v>4.1618285E7</v>
+        <v>1.269578E7</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="J13" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" t="s">
-        <v>31</v>
-      </c>
       <c r="L13" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C14" t="n">
-        <v>5.1050013E7</v>
+        <v>5.8799401E7</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C15" t="n">
-        <v>6.7321115E7</v>
+        <v>9.4134324E7</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="N15" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0439559E7</v>
+        <v>1.2459029E7</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="N16" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C17" t="n">
-        <v>6.0452867E7</v>
+        <v>8.4377001E7</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N17" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.5845781E7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
         <v>107</v>
       </c>
-      <c r="C18" t="n">
-        <v>6.5587954E7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>108</v>
-      </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="K18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="M18" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C19" t="n">
-        <v>1.681193E7</v>
+        <v>3.5035046E7</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="L19" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="M19" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C20" t="n">
-        <v>3.3457508E7</v>
+        <v>4.130478E7</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="L20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M20" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="N20" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C21" t="n">
-        <v>4.4219832E7</v>
+        <v>9.270598E7</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" t="s">
         <v>77</v>
       </c>
-      <c r="H21" t="s">
+      <c r="M21" t="s">
         <v>31</v>
       </c>
-      <c r="I21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" t="s">
-        <v>119</v>
-      </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C22" t="n">
-        <v>5.6845948E7</v>
+        <v>1.2060163E7</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="M22" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C23" t="n">
-        <v>2.5944724E7</v>
+        <v>8.2557909E7</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s">
         <v>44</v>
       </c>
-      <c r="I23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" t="s">
-        <v>42</v>
-      </c>
       <c r="K23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" t="s">
         <v>39</v>
       </c>
-      <c r="L23" t="s">
-        <v>70</v>
-      </c>
-      <c r="M23" t="s">
-        <v>66</v>
-      </c>
       <c r="N23" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C24" t="n">
-        <v>2.3729993E7</v>
+        <v>1.7232697E7</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" t="s">
         <v>63</v>
       </c>
-      <c r="H24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" t="s">
-        <v>48</v>
-      </c>
       <c r="N24" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C25" t="n">
-        <v>4.6238055E7</v>
+        <v>8.5555417E7</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="L25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C26" t="n">
-        <v>5.8807593E7</v>
+        <v>9.888631E7</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="M26" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="N26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C27" t="n">
-        <v>7.7440693E7</v>
+        <v>5.1209545E7</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L27" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M27" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N27" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C28" t="n">
-        <v>2.4101062E7</v>
+        <v>4.7779089E7</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N28" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C29" t="n">
-        <v>6.8665404E7</v>
+        <v>9.4952033E7</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s">
         <v>44</v>
       </c>
-      <c r="I29" t="s">
-        <v>63</v>
-      </c>
       <c r="J29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K29" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M29" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="N29" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C30" t="n">
-        <v>1.2971624E7</v>
+        <v>5.5097217E7</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L30" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="M30" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="N30" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C31" t="n">
-        <v>8.8619641E7</v>
+        <v>3.420589E7</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" t="s">
         <v>54</v>
       </c>
-      <c r="H31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" t="s">
-        <v>84</v>
-      </c>
       <c r="K31" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="L31" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="M31" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="N31" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C32" t="n">
-        <v>4.5127556E7</v>
+        <v>9.5367779E7</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="K32" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="M32" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N32" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C33" t="n">
-        <v>8.7778945E7</v>
+        <v>8.2727459E7</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="L33" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M33" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N33" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C34" t="n">
-        <v>7.1803645E7</v>
+        <v>3.3070261E7</v>
       </c>
       <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
         <v>38</v>
       </c>
-      <c r="E34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" t="s">
-        <v>42</v>
-      </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J34" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L34" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="M34" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N34" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C35" t="n">
-        <v>6.4916069E7</v>
+        <v>6.5787557E7</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="L35" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M35" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="N35" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C36" t="n">
-        <v>7.2537325E7</v>
+        <v>6.6636599E7</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" t="s">
+        <v>95</v>
+      </c>
+      <c r="M36" t="s">
         <v>122</v>
       </c>
-      <c r="L36" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" t="s">
-        <v>32</v>
-      </c>
       <c r="N36" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C37" t="n">
-        <v>3.2488106E7</v>
+        <v>3.2456767E7</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="K37" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="L37" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="M37" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N37" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C38" t="n">
-        <v>4.2773451E7</v>
+        <v>2.1009296E7</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="J38" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="L38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M38" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="N38" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C39" t="n">
-        <v>8.8688512E7</v>
+        <v>3.3778642E7</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" t="s">
         <v>70</v>
       </c>
-      <c r="G39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" t="s">
-        <v>40</v>
-      </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K39" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="L39" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="M39" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C40" t="n">
-        <v>4.1741366E7</v>
+        <v>3.4354398E7</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="K40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" t="s">
         <v>44</v>
-      </c>
-      <c r="L40" t="s">
-        <v>66</v>
-      </c>
-      <c r="M40" t="s">
-        <v>41</v>
-      </c>
-      <c r="N40" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C41" t="n">
-        <v>8.380152E7</v>
+        <v>8.9946121E7</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="K41" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="L41" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="M41" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N41" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C42" t="n">
-        <v>4.8571563E7</v>
+        <v>3.7946778E7</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="K42" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M42" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N42" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C43" t="n">
-        <v>8.7885677E7</v>
+        <v>6.2964377E7</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" t="s">
         <v>31</v>
       </c>
-      <c r="I43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" t="s">
-        <v>59</v>
-      </c>
-      <c r="K43" t="s">
-        <v>172</v>
-      </c>
       <c r="L43" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N43" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C44" t="n">
-        <v>5.1961417E7</v>
+        <v>8.367159E7</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="L44" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="M44" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="N44" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C45" t="n">
-        <v>9.7047184E7</v>
+        <v>6.1683699E7</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="J45" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="K45" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="L45" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="M45" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="N45" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C46" t="n">
-        <v>1.3763082E7</v>
+        <v>1.0127685E7</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="K46" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="M46" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="N46" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C47" t="n">
-        <v>2.2479887E7</v>
+        <v>7.9856162E7</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="H47" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="K47" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="L47" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M47" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N47" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="C48" t="n">
-        <v>9.1345195E7</v>
+        <v>3.5912131E7</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H48" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="K48" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="L48" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="M48" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="N48" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C49" t="n">
-        <v>1.526132E7</v>
+        <v>7.7935173E7</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="F49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" t="s">
+        <v>133</v>
+      </c>
+      <c r="I49" t="s">
+        <v>185</v>
+      </c>
+      <c r="J49" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" t="s">
+        <v>110</v>
+      </c>
+      <c r="L49" t="s">
+        <v>51</v>
+      </c>
+      <c r="M49" t="s">
         <v>17</v>
       </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" t="s">
-        <v>90</v>
-      </c>
-      <c r="I49" t="s">
-        <v>84</v>
-      </c>
-      <c r="J49" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" t="s">
-        <v>77</v>
-      </c>
-      <c r="L49" t="s">
-        <v>34</v>
-      </c>
-      <c r="M49" t="s">
-        <v>51</v>
-      </c>
       <c r="N49" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C50" t="n">
-        <v>9.1858717E7</v>
+        <v>2.358759E7</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I50" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J50" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="K50" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="L50" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="M50" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="N50" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C51" t="n">
-        <v>1.7809515E7</v>
+        <v>1.1909715E7</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G51" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="H51" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I51" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="J51" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="K51" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="M51" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N51" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C52" t="n">
-        <v>9.107777E7</v>
+        <v>8.0715561E7</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="H52" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="I52" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="K52" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="L52" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="M52" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N52" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C53" t="n">
-        <v>8.1828874E7</v>
+        <v>8.4844262E7</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="I53" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="J53" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="K53" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="L53" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M53" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="N53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C54" t="n">
-        <v>9.3391485E7</v>
+        <v>4.6152873E7</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="H54" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="J54" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K54" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L54" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M54" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="N54" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C55" t="n">
-        <v>5.8347797E7</v>
+        <v>7.0080321E7</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="H55" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="K55" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="L55" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="M55" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="N55" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C56" t="n">
-        <v>1.3919419E7</v>
+        <v>6.0743281E7</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="H56" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="I56" t="s">
         <v>47</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K56" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L56" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="M56" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="N56" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C57" t="n">
-        <v>3.0894754E7</v>
+        <v>9.8386733E7</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="I57" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="K57" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="L57" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M57" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="N57" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
@@ -3225,40 +3222,40 @@
         <v>201</v>
       </c>
       <c r="C58" t="n">
-        <v>7.1915455E7</v>
+        <v>1.1055578E7</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G58" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="H58" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K58" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="M58" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="N58" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59">
@@ -3269,84 +3266,84 @@
         <v>203</v>
       </c>
       <c r="C59" t="n">
-        <v>9.8316071E7</v>
+        <v>7.9759669E7</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" t="s">
+        <v>133</v>
+      </c>
+      <c r="G59" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" t="s">
         <v>17</v>
       </c>
-      <c r="F59" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
+        <v>149</v>
+      </c>
+      <c r="J59" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L59" t="s">
         <v>25</v>
       </c>
-      <c r="H59" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" t="s">
-        <v>25</v>
-      </c>
-      <c r="J59" t="s">
-        <v>86</v>
-      </c>
-      <c r="K59" t="s">
-        <v>101</v>
-      </c>
-      <c r="L59" t="s">
-        <v>19</v>
-      </c>
       <c r="M59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N59" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
         <v>204</v>
       </c>
-      <c r="B60" t="s">
-        <v>159</v>
-      </c>
       <c r="C60" t="n">
-        <v>4.1199881E7</v>
+        <v>4.594337E7</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H60" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K60" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="L60" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M60" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="N60" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
@@ -3357,40 +3354,40 @@
         <v>206</v>
       </c>
       <c r="C61" t="n">
-        <v>2.3867538E7</v>
+        <v>5.8313476E7</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="G61" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I61" t="s">
         <v>71</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K61" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L61" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="M61" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="N61" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
